--- a/docs/HubSummary.xlsx
+++ b/docs/HubSummary.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Hub Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Summary'!$A$1:$I$546</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Summary'!$A$1:$I$545</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="1513">
   <si>
     <t>Technology</t>
   </si>
@@ -1867,7 +1867,7 @@
     <t>Couchbase</t>
   </si>
   <si>
-    <t>Automatically and intelligently observe, analyze and optimize how your the usage, health and performance of your NoSQL database.</t>
+    <t>Automatically observe the usage, health and performance of your database.</t>
   </si>
   <si>
     <t>https://www.dynatrace.com/support/help/shortlink/couchbase-monitoring</t>
@@ -3073,345 +3073,336 @@
     <t>https://www.dynatrace.com/technologies/php-monitoring/laravel/</t>
   </si>
   <si>
-    <t>Lightrun Developer Observability Platform</t>
-  </si>
-  <si>
-    <t>Troubleshoot and understand the behavior of live, cloud-native apps by adding logs metrics and snapshots in real-time directly from your IDE.</t>
+    <t>Linkerd</t>
+  </si>
+  <si>
+    <t>LInkerd service mesh provides runtime debugging, observability, reliability, and security with zero code changes.</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Family of open source Unix-like operating systems based on the Linux kernel.</t>
+  </si>
+  <si>
+    <t>Linux on IBM Z mainframe</t>
+  </si>
+  <si>
+    <t>Automatic insights into your Linux operating system on IBM Z mainframe with performance and health metrics down to the process level.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/news/blog/oneagent-for-linux-on-ibm-z-now-available-in-general-availability/</t>
+  </si>
+  <si>
+    <t>LoadRunner</t>
+  </si>
+  <si>
+    <t>Load testing tool for project teams.</t>
+  </si>
+  <si>
+    <t>Configure request attributes, etc.  See blog posts, RobotAdmin, etc.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/shortlink/loadrunner</t>
+  </si>
+  <si>
+    <t>Log Monitoring for AWS</t>
+  </si>
+  <si>
+    <t>Get answers from logs across all services in context.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/shortlink/aws-log-fwd</t>
+  </si>
+  <si>
+    <t>Log Monitoring for Azure</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/shortlink/azure-log-fwd</t>
+  </si>
+  <si>
+    <t>Logs and Events</t>
+  </si>
+  <si>
+    <t>Hassle-free log management lets you ask any question from logs at any time.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/shortlink/log-management-and-analytics</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/platform/log-management-analytics/</t>
+  </si>
+  <si>
+    <t>Logstash</t>
+  </si>
+  <si>
+    <t>Stream log data from Logstash and analyze it in Dynatrace.</t>
+  </si>
+  <si>
+    <t>https://github.com/dynatrace-oss/logstash-output-dynatrace</t>
+  </si>
+  <si>
+    <t>Machine Learning on AWS</t>
+  </si>
+  <si>
+    <t>Robust, cloud-based service that makes it easy for developers of all skill levels to use machine learning technology.</t>
+  </si>
+  <si>
+    <t>Magento</t>
+  </si>
+  <si>
+    <t>Deep insight into user experience, top landing &amp; exit pages and bounce rates.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/technologies/magento-monitoring/</t>
+  </si>
+  <si>
+    <t>MariaDB</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/technology-support/dynatrace-extensions/dynatrace-extension-required/mysql</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/technologies/mysql-monitoring/</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Muild automation tool used primarily for Java projects.</t>
+  </si>
+  <si>
+    <t>Memcached</t>
+  </si>
+  <si>
+    <t>Distributed caching system used to speed up dynamic database-driven websites.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/technologies/memcached-monitoring/</t>
+  </si>
+  <si>
+    <t>Micrometer</t>
+  </si>
+  <si>
+    <t>Automatically ingest Spring Application metrics and analyze them end-to-end in context of your trace, log and diagnostics data.</t>
+  </si>
+  <si>
+    <t>https://micrometer.io/docs/registry/dynatrace</t>
+  </si>
+  <si>
+    <t>Microsoft Active Directory replication</t>
+  </si>
+  <si>
+    <t>Monitors the replication status of your Active Directory servers</t>
+  </si>
+  <si>
+    <t>Install extension both on a OneAgent and on the Dynatrace Cluster.  See hub link for more details.</t>
+  </si>
+  <si>
+    <t>Microsoft Azure</t>
+  </si>
+  <si>
+    <t>Cloud computing service for building, testing, deploying, and managing applications and services.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/shortlink/azure-monitor-hub</t>
+  </si>
+  <si>
+    <t>Microsoft Edge</t>
+  </si>
+  <si>
+    <t>Real user monitoring - visibility and monitoring starting on you clients browser (desktop, tablet, mobile).</t>
+  </si>
+  <si>
+    <t>Microsoft Exchange Server</t>
+  </si>
+  <si>
+    <t>Monitor health and improve performance of your Microsoft Exchange mail server and calendaring server.</t>
+  </si>
+  <si>
+    <t>Microsoft Hyper-V Infrastructure</t>
+  </si>
+  <si>
+    <t>Monitor health and performance of the Hyper-V clusters, hosts and VMs.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/shortlink/extend-metric</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/news/blog/optimize-your-environment-unveiling-dynatrace-hyper-v-extension-for-enhanced-performance-and-efficient-troubleshooting/</t>
+  </si>
+  <si>
+    <t>Microsoft Hyper-V Virtual Machines</t>
+  </si>
+  <si>
+    <t>Monitor Microsoft Hyper-V virtual machines from the guest OS perspective.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/platform/virtualization-monitoring/</t>
+  </si>
+  <si>
+    <t>Microsoft IIS</t>
+  </si>
+  <si>
+    <t>Flexible, secure and manageable Web server for hosting anything on the Web  for Windows® Server.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/technologies/microsoft-iis-monitoring/</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer</t>
+  </si>
+  <si>
+    <t>Series of graphical web browsers.</t>
+  </si>
+  <si>
+    <t>Microsoft Message Queuing (MSMQ)</t>
+  </si>
+  <si>
+    <t>Automatic and intelligent observability for MSMQ with end-to-end traces of connected producers and consumers.</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>Improve the health and performance monitoring of your Microsoft SQL Servers.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/news/blog/intelligent-observability-for-oracle-and-sql-databases/</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server (local)</t>
+  </si>
+  <si>
+    <t>Improve the health and performance monitoring of your Microsoft SQL Servers</t>
+  </si>
+  <si>
+    <t>Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Hub for team collaboration in Microsoft 365 that integrates the people, content, and tools.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/shortlink/set-up-msteams-integration</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio</t>
+  </si>
+  <si>
+    <t>Integrated development environment from Microsoft.</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Analyze real user monitoring data of mobile apps in context with the backend.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/platform-modules/digital-experience/mobile-applications</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/platform/mobile-app-monitoring/</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/news/blog/enhanced-mongodb-monitoring-beta/</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/technologies/mongodb-monitoring/</t>
+  </si>
+  <si>
+    <t>MongoDB (Prometheus)</t>
+  </si>
+  <si>
+    <t>Monitor MongoDB server using prometheus to feed Dynatrace with metrics.</t>
+  </si>
+  <si>
+    <t>MongoDB Atlas</t>
+  </si>
+  <si>
+    <t>Remotely monitor your SaaS installation of MongoDB (Atlas)</t>
+  </si>
+  <si>
+    <t>Monitoring Coverage</t>
+  </si>
+  <si>
+    <t>Sample app to visualize and increase monitoring coverage by Dynatrace.</t>
+  </si>
+  <si>
+    <t>https://developer.dynatrace.com/sample-apps/monitoring-coverage</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Free, open source web browser that uses the Gecko layout engine.</t>
+  </si>
+  <si>
+    <t>Mulesoft Cloudhub (Extension v2)</t>
+  </si>
+  <si>
+    <t>Gather in depth metrics and topology from your Anypoint Cloudhub Organizations, Environments, Applications, APIs and Workers.</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/shortlink/extend-mysql</t>
+  </si>
+  <si>
+    <t>MySQL (remote monitoring)</t>
+  </si>
+  <si>
+    <t>Remotely monitor your MySQL instances, collect key KPIs and slow queries details</t>
+  </si>
+  <si>
+    <t>NGINX</t>
+  </si>
+  <si>
+    <t>Accelerates application delivery, improves security, facilitates availability &amp; scalability.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/technologies/nginx-monitoring/</t>
+  </si>
+  <si>
+    <t>NGINX Plus</t>
+  </si>
+  <si>
+    <t>All‑in‑one load balancer, content cache, and web server.</t>
+  </si>
+  <si>
+    <t>NTP sync check</t>
+  </si>
+  <si>
+    <t>Network Time Protocol assures host clocks are in sync with a trusted time source.</t>
+  </si>
+  <si>
+    <t>NVIDIA GPUs</t>
+  </si>
+  <si>
+    <t>Monitor the utilization and temperature of your NVIDIA GPUs.</t>
+  </si>
+  <si>
+    <t>Neo4j</t>
+  </si>
+  <si>
+    <t>Extend observability with PurePath® distributed traces by seamlessly integrating OpenTracing data emitted by the Neo4j graph database.</t>
+  </si>
+  <si>
+    <t>https://www.dynatrace.com/support/help/shortlink/opentracing</t>
+  </si>
+  <si>
+    <t>NeoLoad</t>
+  </si>
+  <si>
+    <t>Automated Load Testing tool enabling you to run Continuous Performance Testing.</t>
   </si>
   <si>
     <t>Supported by a partner.  See Hub link for more details.</t>
   </si>
   <si>
-    <t>https://docs.lightrun.com/integrations/dynatrace/</t>
-  </si>
-  <si>
-    <t>Linkerd</t>
-  </si>
-  <si>
-    <t>LInkerd service mesh provides runtime debugging, observability, reliability, and security with zero code changes.</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>Family of open source Unix-like operating systems based on the Linux kernel.</t>
-  </si>
-  <si>
-    <t>Linux on IBM Z mainframe</t>
-  </si>
-  <si>
-    <t>Automatic insights into your Linux operating system on IBM Z mainframe with performance and health metrics down to the process level.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/news/blog/oneagent-for-linux-on-ibm-z-now-available-in-general-availability/</t>
-  </si>
-  <si>
-    <t>LoadRunner</t>
-  </si>
-  <si>
-    <t>Load testing tool for project teams.</t>
-  </si>
-  <si>
-    <t>Configure request attributes, etc.  See blog posts, RobotAdmin, etc.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/shortlink/loadrunner</t>
-  </si>
-  <si>
-    <t>Log Monitoring for AWS</t>
-  </si>
-  <si>
-    <t>Get answers from logs across all services in context.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/shortlink/aws-log-fwd</t>
-  </si>
-  <si>
-    <t>Log Monitoring for Azure</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/shortlink/azure-log-fwd</t>
-  </si>
-  <si>
-    <t>Logs and Events</t>
-  </si>
-  <si>
-    <t>Hassle-free log management lets you ask any question from logs at any time.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/shortlink/log-management-and-analytics</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/platform/log-management-analytics/</t>
-  </si>
-  <si>
-    <t>Logstash</t>
-  </si>
-  <si>
-    <t>Stream log data from Logstash and analyze it in Dynatrace.</t>
-  </si>
-  <si>
-    <t>https://github.com/dynatrace-oss/logstash-output-dynatrace</t>
-  </si>
-  <si>
-    <t>Machine Learning on AWS</t>
-  </si>
-  <si>
-    <t>Robust, cloud-based service that makes it easy for developers of all skill levels to use machine learning technology.</t>
-  </si>
-  <si>
-    <t>Magento</t>
-  </si>
-  <si>
-    <t>Deep insight into user experience, top landing &amp; exit pages and bounce rates.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/technologies/magento-monitoring/</t>
-  </si>
-  <si>
-    <t>MariaDB</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/technology-support/dynatrace-extensions/dynatrace-extension-required/mysql</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/technologies/mysql-monitoring/</t>
-  </si>
-  <si>
-    <t>Maven</t>
-  </si>
-  <si>
-    <t>Muild automation tool used primarily for Java projects.</t>
-  </si>
-  <si>
-    <t>Memcached</t>
-  </si>
-  <si>
-    <t>Distributed caching system used to speed up dynamic database-driven websites.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/technologies/memcached-monitoring/</t>
-  </si>
-  <si>
-    <t>Micrometer</t>
-  </si>
-  <si>
-    <t>Automatically ingest Spring Application metrics and analyze them end-to-end in context of your trace, log and diagnostics data.</t>
-  </si>
-  <si>
-    <t>https://micrometer.io/docs/registry/dynatrace</t>
-  </si>
-  <si>
-    <t>Microsoft Active Directory replication</t>
-  </si>
-  <si>
-    <t>Monitors the replication status of your Active Directory servers</t>
-  </si>
-  <si>
-    <t>Install extension both on a OneAgent and on the Dynatrace Cluster.  See hub link for more details.</t>
-  </si>
-  <si>
-    <t>Microsoft Azure</t>
-  </si>
-  <si>
-    <t>Cloud computing service for building, testing, deploying, and managing applications and services.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/shortlink/azure-monitor-hub</t>
-  </si>
-  <si>
-    <t>Microsoft Edge</t>
-  </si>
-  <si>
-    <t>Real user monitoring - visibility and monitoring starting on you clients browser (desktop, tablet, mobile).</t>
-  </si>
-  <si>
-    <t>Microsoft Exchange Server</t>
-  </si>
-  <si>
-    <t>Monitor health and improve performance of your Microsoft Exchange mail server and calendaring server.</t>
-  </si>
-  <si>
-    <t>Microsoft Hyper-V Infrastructure</t>
-  </si>
-  <si>
-    <t>Monitor health and performance of the Hyper-V clusters, hosts and VMs.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/shortlink/extend-metric</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/news/blog/optimize-your-environment-unveiling-dynatrace-hyper-v-extension-for-enhanced-performance-and-efficient-troubleshooting/</t>
-  </si>
-  <si>
-    <t>Microsoft Hyper-V Virtual Machines</t>
-  </si>
-  <si>
-    <t>Monitor Microsoft Hyper-V virtual machines from the guest OS perspective.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/platform/virtualization-monitoring/</t>
-  </si>
-  <si>
-    <t>Microsoft IIS</t>
-  </si>
-  <si>
-    <t>Flexible, secure and manageable Web server for hosting anything on the Web  for Windows® Server.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/technologies/microsoft-iis-monitoring/</t>
-  </si>
-  <si>
-    <t>Microsoft Internet Explorer</t>
-  </si>
-  <si>
-    <t>Series of graphical web browsers.</t>
-  </si>
-  <si>
-    <t>Microsoft Message Queuing (MSMQ)</t>
-  </si>
-  <si>
-    <t>Automatic and intelligent observability for MSMQ with end-to-end traces of connected producers and consumers.</t>
-  </si>
-  <si>
-    <t>Microsoft SQL Server</t>
-  </si>
-  <si>
-    <t>Improve the health and performance monitoring of your Microsoft SQL Servers.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/news/blog/intelligent-observability-for-oracle-and-sql-databases/</t>
-  </si>
-  <si>
-    <t>Microsoft SQL Server (local)</t>
-  </si>
-  <si>
-    <t>Improve the health and performance monitoring of your Microsoft SQL Servers</t>
-  </si>
-  <si>
-    <t>Microsoft Teams</t>
-  </si>
-  <si>
-    <t>Hub for team collaboration in Microsoft 365 that integrates the people, content, and tools.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/shortlink/set-up-msteams-integration</t>
-  </si>
-  <si>
-    <t>Microsoft Visual Studio</t>
-  </si>
-  <si>
-    <t>Integrated development environment from Microsoft.</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Analyze real user monitoring data of mobile apps in context with the backend.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/platform-modules/digital-experience/mobile-applications</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/platform/mobile-app-monitoring/</t>
-  </si>
-  <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/news/blog/enhanced-mongodb-monitoring-beta/</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/technologies/mongodb-monitoring/</t>
-  </si>
-  <si>
-    <t>MongoDB (Prometheus)</t>
-  </si>
-  <si>
-    <t>Monitor MongoDB server using prometheus to feed Dynatrace with metrics.</t>
-  </si>
-  <si>
-    <t>MongoDB Atlas</t>
-  </si>
-  <si>
-    <t>Remotely monitor your SaaS installation of MongoDB (Atlas)</t>
-  </si>
-  <si>
-    <t>Monitoring Coverage</t>
-  </si>
-  <si>
-    <t>Sample app to visualize and increase monitoring coverage by Dynatrace.</t>
-  </si>
-  <si>
-    <t>https://developer.dynatrace.com/sample-apps/monitoring-coverage</t>
-  </si>
-  <si>
-    <t>Mozilla Firefox</t>
-  </si>
-  <si>
-    <t>Free, open source web browser that uses the Gecko layout engine.</t>
-  </si>
-  <si>
-    <t>Mulesoft Cloudhub (Extension v2)</t>
-  </si>
-  <si>
-    <t>Gather in depth metrics and topology from your Anypoint Cloudhub Organizations, Environments, Applications, APIs and Workers.</t>
-  </si>
-  <si>
-    <t>MySQL</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/shortlink/extend-mysql</t>
-  </si>
-  <si>
-    <t>MySQL (remote monitoring)</t>
-  </si>
-  <si>
-    <t>Remotely monitor your MySQL instances, collect key KPIs and slow queries details</t>
-  </si>
-  <si>
-    <t>NGINX</t>
-  </si>
-  <si>
-    <t>Accelerates application delivery, improves security, facilitates availability &amp; scalability.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/technologies/nginx-monitoring/</t>
-  </si>
-  <si>
-    <t>NGINX Plus</t>
-  </si>
-  <si>
-    <t>All‑in‑one load balancer, content cache, and web server.</t>
-  </si>
-  <si>
-    <t>NTP sync check</t>
-  </si>
-  <si>
-    <t>Network Time Protocol assures host clocks are in sync with a trusted time source.</t>
-  </si>
-  <si>
-    <t>NVIDIA GPUs</t>
-  </si>
-  <si>
-    <t>Monitor the utilization and temperature of your NVIDIA GPUs.</t>
-  </si>
-  <si>
-    <t>Neo4j</t>
-  </si>
-  <si>
-    <t>Extend observability with PurePath® distributed traces by seamlessly integrating OpenTracing data emitted by the Neo4j graph database.</t>
-  </si>
-  <si>
-    <t>https://www.dynatrace.com/support/help/shortlink/opentracing</t>
-  </si>
-  <si>
-    <t>NeoLoad</t>
-  </si>
-  <si>
-    <t>Automated Load Testing tool enabling you to run Continuous Performance Testing.</t>
-  </si>
-  <si>
     <t>https://www.dynatrace.com/support/help/setup-and-configuration/integrations/third-party-integrations/test-automation-frameworks/neotys-integration</t>
   </si>
   <si>
@@ -4111,12 +4102,6 @@
     <t>https://www.dynatrace.com/platform/synthetic-monitoring/</t>
   </si>
   <si>
-    <t>Synthetic SFTP monitor</t>
-  </si>
-  <si>
-    <t>Monitor SFTP availability and performance. Visualize the data as Synthetic tests in Dynatrace.</t>
-  </si>
-  <si>
     <t>Synthetic monitor DNS</t>
   </si>
   <si>
@@ -4322,6 +4307,12 @@
   </si>
   <si>
     <t>Integrated monitoring of business, performance, and user experience for WeChat Mini-Programs.</t>
+  </si>
+  <si>
+    <t>Weaviate</t>
+  </si>
+  <si>
+    <t>Observe your semantic cache efficiency to reduce cost and latency for LLM apps</t>
   </si>
   <si>
     <t>Web application monitoring via browser extension</t>
@@ -4924,7 +4915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H545"/>
+  <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12202,14 +12193,14 @@
       <c r="B357" t="s">
         <v>1019</v>
       </c>
-      <c r="C357" t="s">
-        <v>1020</v>
-      </c>
       <c r="D357" s="2" t="s">
-        <v>1021</v>
+        <v>684</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>1021</v>
+        <v>684</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="H357" t="s">
         <v>12</v>
@@ -12217,19 +12208,22 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B358" t="s">
-        <v>1023</v>
+        <v>1021</v>
+      </c>
+      <c r="C358" t="s">
+        <v>144</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>684</v>
+        <v>566</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>684</v>
+        <v>566</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="H358" t="s">
         <v>12</v>
@@ -12237,10 +12231,10 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B359" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C359" t="s">
         <v>144</v>
@@ -12252,7 +12246,7 @@
         <v>566</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>567</v>
+        <v>1024</v>
       </c>
       <c r="H359" t="s">
         <v>12</v>
@@ -12260,21 +12254,18 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B360" t="s">
         <v>1026</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
         <v>1027</v>
       </c>
-      <c r="C360" t="s">
-        <v>144</v>
-      </c>
       <c r="D360" s="2" t="s">
-        <v>566</v>
+        <v>1028</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G360" s="2" t="s">
         <v>1028</v>
       </c>
       <c r="H360" t="s">
@@ -12289,13 +12280,13 @@
         <v>1030</v>
       </c>
       <c r="C361" t="s">
+        <v>339</v>
+      </c>
+      <c r="D361" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="D361" s="2" t="s">
-        <v>1032</v>
-      </c>
       <c r="F361" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H361" t="s">
         <v>12</v>
@@ -12303,19 +12294,19 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C362" t="s">
+        <v>412</v>
+      </c>
+      <c r="D362" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B362" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C362" t="s">
-        <v>339</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>1035</v>
-      </c>
       <c r="F362" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H362" t="s">
         <v>12</v>
@@ -12323,18 +12314,18 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D363" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="B363" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C363" t="s">
-        <v>412</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>1037</v>
-      </c>
       <c r="F363" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G363" s="2" t="s">
         <v>1037</v>
       </c>
       <c r="H363" t="s">
@@ -12348,34 +12339,28 @@
       <c r="B364" t="s">
         <v>1039</v>
       </c>
+      <c r="C364" t="s">
+        <v>339</v>
+      </c>
       <c r="D364" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="G364" s="2" t="s">
-        <v>1041</v>
-      </c>
       <c r="H364" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B365" t="s">
         <v>1042</v>
       </c>
-      <c r="B365" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C365" t="s">
-        <v>339</v>
-      </c>
       <c r="D365" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F365" s="2" t="s">
-        <v>1044</v>
+        <v>67</v>
       </c>
       <c r="H365" t="s">
         <v>12</v>
@@ -12383,13 +12368,19 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C366" t="s">
+        <v>144</v>
+      </c>
+      <c r="D366" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="B366" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>67</v>
+      <c r="G366" s="2" t="s">
+        <v>1045</v>
       </c>
       <c r="H366" t="s">
         <v>12</v>
@@ -12397,19 +12388,22 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+      <c r="C367" t="s">
+        <v>361</v>
+      </c>
+      <c r="D367" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B367" t="s">
+      <c r="F367" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G367" s="2" t="s">
         <v>1048</v>
-      </c>
-      <c r="C367" t="s">
-        <v>144</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>1049</v>
       </c>
       <c r="H367" t="s">
         <v>12</v>
@@ -12417,22 +12411,19 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B368" t="s">
         <v>1050</v>
       </c>
-      <c r="B368" t="s">
-        <v>367</v>
-      </c>
       <c r="C368" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F368" s="2" t="s">
-        <v>1051</v>
+        <v>397</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>1052</v>
+        <v>397</v>
       </c>
       <c r="H368" t="s">
         <v>12</v>
@@ -12440,19 +12431,19 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C369" t="s">
+        <v>130</v>
+      </c>
+      <c r="D369" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="B369" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C369" t="s">
-        <v>376</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="G369" s="2" t="s">
-        <v>397</v>
+        <v>1053</v>
       </c>
       <c r="H369" t="s">
         <v>12</v>
@@ -12460,19 +12451,19 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B370" t="s">
         <v>1055</v>
       </c>
-      <c r="B370" t="s">
+      <c r="C370" t="s">
+        <v>339</v>
+      </c>
+      <c r="D370" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="C370" t="s">
-        <v>130</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>1057</v>
-      </c>
       <c r="G370" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H370" t="s">
         <v>12</v>
@@ -12480,19 +12471,16 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B371" t="s">
         <v>1058</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C371" t="s">
         <v>1059</v>
       </c>
-      <c r="C371" t="s">
-        <v>339</v>
-      </c>
       <c r="D371" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G371" s="2" t="s">
-        <v>1060</v>
+        <v>67</v>
       </c>
       <c r="H371" t="s">
         <v>12</v>
@@ -12500,16 +12488,22 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B372" t="s">
         <v>1061</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C372" t="s">
+        <v>412</v>
+      </c>
+      <c r="D372" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="C372" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>67</v>
+      <c r="F372" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="H372" t="s">
         <v>12</v>
@@ -12517,22 +12511,22 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B373" t="s">
         <v>1064</v>
       </c>
-      <c r="B373" t="s">
-        <v>1065</v>
-      </c>
       <c r="C373" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>1066</v>
+        <v>766</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>1066</v>
+        <v>766</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="H373" t="s">
         <v>12</v>
@@ -12540,22 +12534,22 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B374" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C374" t="s">
-        <v>335</v>
+        <v>576</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>766</v>
+        <v>131</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>766</v>
+        <v>131</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>332</v>
+        <v>132</v>
       </c>
       <c r="H374" t="s">
         <v>12</v>
@@ -12563,22 +12557,19 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D375" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="B375" t="s">
+      <c r="F375" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G375" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="C375" t="s">
-        <v>576</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G375" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H375" t="s">
         <v>12</v>
@@ -12594,11 +12585,8 @@
       <c r="D376" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="F376" s="2" t="s">
+      <c r="G376" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="G376" s="2" t="s">
-        <v>1074</v>
       </c>
       <c r="H376" t="s">
         <v>12</v>
@@ -12606,16 +12594,19 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B377" t="s">
         <v>1075</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
+        <v>335</v>
+      </c>
+      <c r="D377" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="D377" s="2" t="s">
-        <v>1077</v>
-      </c>
       <c r="G377" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H377" t="s">
         <v>12</v>
@@ -12623,19 +12614,22 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B378" t="s">
         <v>1078</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1079</v>
       </c>
       <c r="C378" t="s">
         <v>335</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>1080</v>
+        <v>766</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>1080</v>
+        <v>332</v>
       </c>
       <c r="H378" t="s">
         <v>12</v>
@@ -12643,22 +12637,19 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B379" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C379" t="s">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>766</v>
+        <v>351</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="H379" t="s">
         <v>12</v>
@@ -12666,19 +12657,19 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C380" t="s">
+        <v>361</v>
+      </c>
+      <c r="D380" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B380" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C380" t="s">
-        <v>144</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F380" s="2" t="s">
-        <v>351</v>
+      <c r="G380" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="H380" t="s">
         <v>12</v>
@@ -12686,19 +12677,16 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B381" t="s">
         <v>1085</v>
       </c>
-      <c r="B381" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C381" t="s">
-        <v>361</v>
-      </c>
       <c r="D381" s="2" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="H381" t="s">
         <v>12</v>
@@ -12706,16 +12694,22 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C382" t="s">
+        <v>343</v>
+      </c>
+      <c r="D382" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="B382" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>1087</v>
+      <c r="F382" s="2" t="s">
+        <v>1088</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H382" t="s">
         <v>12</v>
@@ -12723,22 +12717,19 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B383" t="s">
         <v>1090</v>
       </c>
-      <c r="B383" t="s">
-        <v>1091</v>
-      </c>
       <c r="C383" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F383" s="2" t="s">
-        <v>1092</v>
+        <v>397</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>1092</v>
+        <v>397</v>
       </c>
       <c r="H383" t="s">
         <v>12</v>
@@ -12746,19 +12737,19 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B384" t="s">
+      <c r="F384" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G384" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="C384" t="s">
-        <v>376</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G384" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="H384" t="s">
         <v>12</v>
@@ -12769,16 +12760,19 @@
         <v>1095</v>
       </c>
       <c r="B385" t="s">
+        <v>367</v>
+      </c>
+      <c r="C385" t="s">
+        <v>361</v>
+      </c>
+      <c r="D385" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="D385" s="2" t="s">
+      <c r="F385" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G385" s="2" t="s">
         <v>1097</v>
-      </c>
-      <c r="F385" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G385" s="2" t="s">
-        <v>1098</v>
       </c>
       <c r="H385" t="s">
         <v>12</v>
@@ -12786,22 +12780,22 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B386" t="s">
         <v>1099</v>
       </c>
-      <c r="B386" t="s">
-        <v>367</v>
-      </c>
       <c r="C386" t="s">
-        <v>361</v>
+        <v>889</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1100</v>
+        <v>599</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>1100</v>
+        <v>599</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="H386" t="s">
         <v>12</v>
@@ -12809,22 +12803,13 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B387" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C387" t="s">
-        <v>889</v>
+        <v>1101</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F387" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="G387" s="2" t="s">
-        <v>1101</v>
+        <v>67</v>
       </c>
       <c r="H387" t="s">
         <v>12</v>
@@ -12832,13 +12817,19 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D388" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="B388" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>67</v>
+      <c r="F388" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>1104</v>
       </c>
       <c r="H388" t="s">
         <v>12</v>
@@ -12846,19 +12837,22 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B389" t="s">
         <v>1106</v>
       </c>
-      <c r="B389" t="s">
-        <v>1107</v>
+      <c r="C389" t="s">
+        <v>335</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1108</v>
+        <v>766</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>1108</v>
+        <v>766</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1108</v>
+        <v>332</v>
       </c>
       <c r="H389" t="s">
         <v>12</v>
@@ -12866,22 +12860,16 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B390" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C390" t="s">
-        <v>335</v>
+        <v>576</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="F390" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="G390" s="2" t="s">
-        <v>332</v>
+        <v>67</v>
       </c>
       <c r="H390" t="s">
         <v>12</v>
@@ -12889,16 +12877,19 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B391" t="s">
-        <v>1112</v>
+        <v>367</v>
       </c>
       <c r="C391" t="s">
-        <v>576</v>
+        <v>361</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>67</v>
+        <v>1110</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>1110</v>
       </c>
       <c r="H391" t="s">
         <v>12</v>
@@ -12906,19 +12897,19 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B392" t="s">
-        <v>367</v>
+        <v>1112</v>
       </c>
       <c r="C392" t="s">
-        <v>361</v>
+        <v>576</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="H392" t="s">
         <v>12</v>
@@ -12926,19 +12917,22 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C393" t="s">
+        <v>144</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G393" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C393" t="s">
-        <v>576</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F393" s="2" t="s">
-        <v>1114</v>
       </c>
       <c r="H393" t="s">
         <v>12</v>
@@ -12946,10 +12940,10 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B394" t="s">
         <v>1117</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1118</v>
       </c>
       <c r="C394" t="s">
         <v>144</v>
@@ -12961,7 +12955,7 @@
         <v>372</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="H394" t="s">
         <v>12</v>
@@ -12969,22 +12963,16 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B395" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C395" t="s">
         <v>144</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F395" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G395" s="2" t="s">
-        <v>1119</v>
+        <v>67</v>
       </c>
       <c r="H395" t="s">
         <v>12</v>
@@ -12992,13 +12980,13 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B396" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C396" t="s">
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>67</v>
@@ -13009,16 +12997,22 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C397" t="s">
+        <v>339</v>
+      </c>
+      <c r="D397" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="B397" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C397" t="s">
-        <v>576</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>67</v>
+      <c r="F397" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>899</v>
       </c>
       <c r="H397" t="s">
         <v>12</v>
@@ -13026,22 +13020,19 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B398" t="s">
         <v>1126</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>1127</v>
-      </c>
-      <c r="C398" t="s">
-        <v>339</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="F398" s="2" t="s">
+      <c r="G398" s="2" t="s">
         <v>1128</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>899</v>
       </c>
       <c r="H398" t="s">
         <v>12</v>
@@ -13055,13 +13046,10 @@
         <v>1130</v>
       </c>
       <c r="C399" t="s">
-        <v>1020</v>
+        <v>576</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G399" s="2" t="s">
-        <v>1131</v>
+        <v>67</v>
       </c>
       <c r="H399" t="s">
         <v>12</v>
@@ -13069,13 +13057,13 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B400" t="s">
         <v>1132</v>
       </c>
-      <c r="B400" t="s">
-        <v>1133</v>
-      </c>
       <c r="C400" t="s">
-        <v>576</v>
+        <v>747</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>67</v>
@@ -13086,16 +13074,19 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B401" t="s">
         <v>1134</v>
       </c>
-      <c r="B401" t="s">
-        <v>1135</v>
-      </c>
       <c r="C401" t="s">
-        <v>747</v>
+        <v>335</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>67</v>
+        <v>719</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>719</v>
       </c>
       <c r="H401" t="s">
         <v>12</v>
@@ -13103,19 +13094,19 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B402" t="s">
         <v>1136</v>
       </c>
-      <c r="B402" t="s">
-        <v>1137</v>
-      </c>
       <c r="C402" t="s">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F402" s="2" t="s">
-        <v>719</v>
+        <v>693</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="H402" t="s">
         <v>12</v>
@@ -13123,19 +13114,16 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B403" t="s">
         <v>1138</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1139</v>
       </c>
       <c r="C403" t="s">
         <v>144</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>693</v>
+        <v>67</v>
       </c>
       <c r="H403" t="s">
         <v>12</v>
@@ -13143,16 +13131,19 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B404" t="s">
         <v>1140</v>
       </c>
-      <c r="B404" t="s">
+      <c r="D404" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G404" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="C404" t="s">
-        <v>144</v>
-      </c>
-      <c r="D404" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H404" t="s">
         <v>12</v>
@@ -13165,14 +13156,17 @@
       <c r="B405" t="s">
         <v>1143</v>
       </c>
+      <c r="C405" t="s">
+        <v>144</v>
+      </c>
       <c r="D405" s="2" t="s">
-        <v>1073</v>
+        <v>1144</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>1073</v>
+        <v>1144</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H405" t="s">
         <v>12</v>
@@ -13180,19 +13174,13 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B406" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C406" t="s">
-        <v>144</v>
+        <v>1147</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G406" s="2" t="s">
         <v>1148</v>
@@ -13206,13 +13194,13 @@
         <v>1149</v>
       </c>
       <c r="B407" t="s">
-        <v>1150</v>
+        <v>178</v>
+      </c>
+      <c r="C407" t="s">
+        <v>144</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G407" s="2" t="s">
-        <v>1151</v>
+        <v>67</v>
       </c>
       <c r="H407" t="s">
         <v>12</v>
@@ -13220,16 +13208,16 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D408" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="B408" t="s">
-        <v>178</v>
-      </c>
-      <c r="C408" t="s">
-        <v>144</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>67</v>
+      <c r="F408" s="2" t="s">
+        <v>1152</v>
       </c>
       <c r="H408" t="s">
         <v>12</v>
@@ -13242,11 +13230,17 @@
       <c r="B409" t="s">
         <v>1154</v>
       </c>
+      <c r="C409" t="s">
+        <v>576</v>
+      </c>
       <c r="D409" s="2" t="s">
         <v>1155</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>1155</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="H409" t="s">
         <v>12</v>
@@ -13259,9 +13253,6 @@
       <c r="B410" t="s">
         <v>1157</v>
       </c>
-      <c r="C410" t="s">
-        <v>576</v>
-      </c>
       <c r="D410" s="2" t="s">
         <v>1158</v>
       </c>
@@ -13269,7 +13260,7 @@
         <v>1158</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>608</v>
+        <v>1159</v>
       </c>
       <c r="H410" t="s">
         <v>12</v>
@@ -13277,19 +13268,22 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B411" t="s">
-        <v>1160</v>
+        <v>1161</v>
+      </c>
+      <c r="C411" t="s">
+        <v>339</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>1161</v>
+        <v>898</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>1161</v>
+        <v>898</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>1162</v>
+        <v>899</v>
       </c>
       <c r="H411" t="s">
         <v>12</v>
@@ -13297,22 +13291,22 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B412" t="s">
         <v>1163</v>
       </c>
-      <c r="B412" t="s">
-        <v>1164</v>
-      </c>
       <c r="C412" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>898</v>
+        <v>766</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>898</v>
+        <v>766</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>899</v>
+        <v>332</v>
       </c>
       <c r="H412" t="s">
         <v>12</v>
@@ -13320,22 +13314,22 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B413" t="s">
         <v>1165</v>
       </c>
-      <c r="B413" t="s">
+      <c r="C413" t="s">
+        <v>343</v>
+      </c>
+      <c r="D413" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="C413" t="s">
-        <v>335</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>766</v>
-      </c>
       <c r="F413" s="2" t="s">
-        <v>766</v>
+        <v>1166</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>332</v>
+        <v>1167</v>
       </c>
       <c r="H413" t="s">
         <v>12</v>
@@ -13343,19 +13337,16 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B414" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C414" t="s">
-        <v>343</v>
+        <v>144</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G414" s="2" t="s">
         <v>1170</v>
@@ -13372,13 +13363,13 @@
         <v>1172</v>
       </c>
       <c r="C415" t="s">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>1173</v>
+        <v>1083</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>1173</v>
+        <v>1083</v>
       </c>
       <c r="H415" t="s">
         <v>12</v>
@@ -13386,19 +13377,22 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B416" t="s">
         <v>1174</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
+        <v>335</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G416" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="C416" t="s">
-        <v>361</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G416" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="H416" t="s">
         <v>12</v>
@@ -13409,19 +13403,13 @@
         <v>1176</v>
       </c>
       <c r="B417" t="s">
-        <v>1177</v>
+        <v>178</v>
       </c>
       <c r="C417" t="s">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G417" s="2" t="s">
-        <v>1178</v>
+        <v>67</v>
       </c>
       <c r="H417" t="s">
         <v>12</v>
@@ -13429,7 +13417,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B418" t="s">
         <v>178</v>
@@ -13438,7 +13426,10 @@
         <v>144</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>67</v>
+        <v>179</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H418" t="s">
         <v>12</v>
@@ -13446,19 +13437,19 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B419" t="s">
-        <v>178</v>
+        <v>1179</v>
       </c>
       <c r="C419" t="s">
         <v>144</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F419" s="2" t="s">
-        <v>179</v>
+        <v>1180</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>1180</v>
       </c>
       <c r="H419" t="s">
         <v>12</v>
@@ -13469,16 +13460,13 @@
         <v>1181</v>
       </c>
       <c r="B420" t="s">
-        <v>1182</v>
+        <v>389</v>
       </c>
       <c r="C420" t="s">
         <v>144</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G420" s="2" t="s">
-        <v>1183</v>
+        <v>67</v>
       </c>
       <c r="H420" t="s">
         <v>12</v>
@@ -13486,16 +13474,19 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C421" t="s">
+        <v>339</v>
+      </c>
+      <c r="D421" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="B421" t="s">
-        <v>389</v>
-      </c>
-      <c r="C421" t="s">
-        <v>144</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>67</v>
+      <c r="G421" s="2" t="s">
+        <v>1184</v>
       </c>
       <c r="H421" t="s">
         <v>12</v>
@@ -13509,13 +13500,13 @@
         <v>1186</v>
       </c>
       <c r="C422" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>1187</v>
+        <v>397</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>1187</v>
+        <v>397</v>
       </c>
       <c r="H422" t="s">
         <v>12</v>
@@ -13523,19 +13514,22 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B423" t="s">
         <v>1188</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
+        <v>130</v>
+      </c>
+      <c r="D423" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="C423" t="s">
-        <v>376</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>397</v>
+      <c r="F423" s="2" t="s">
+        <v>1189</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>397</v>
+        <v>1189</v>
       </c>
       <c r="H423" t="s">
         <v>12</v>
@@ -13549,7 +13543,7 @@
         <v>1191</v>
       </c>
       <c r="C424" t="s">
-        <v>130</v>
+        <v>576</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>1192</v>
@@ -13558,7 +13552,7 @@
         <v>1192</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>1192</v>
+        <v>732</v>
       </c>
       <c r="H424" t="s">
         <v>12</v>
@@ -13569,19 +13563,13 @@
         <v>1193</v>
       </c>
       <c r="B425" t="s">
-        <v>1194</v>
+        <v>389</v>
       </c>
       <c r="C425" t="s">
-        <v>576</v>
+        <v>144</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G425" s="2" t="s">
-        <v>732</v>
+        <v>67</v>
       </c>
       <c r="H425" t="s">
         <v>12</v>
@@ -13589,16 +13577,19 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C426" t="s">
+        <v>339</v>
+      </c>
+      <c r="D426" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="B426" t="s">
-        <v>389</v>
-      </c>
-      <c r="C426" t="s">
-        <v>144</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>67</v>
+      <c r="G426" s="2" t="s">
+        <v>1196</v>
       </c>
       <c r="H426" t="s">
         <v>12</v>
@@ -13612,7 +13603,7 @@
         <v>1198</v>
       </c>
       <c r="C427" t="s">
-        <v>339</v>
+        <v>544</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>1199</v>
@@ -13632,7 +13623,7 @@
         <v>1201</v>
       </c>
       <c r="C428" t="s">
-        <v>544</v>
+        <v>144</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>1202</v>
@@ -13649,13 +13640,16 @@
         <v>1203</v>
       </c>
       <c r="B429" t="s">
+        <v>367</v>
+      </c>
+      <c r="C429" t="s">
+        <v>361</v>
+      </c>
+      <c r="D429" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="C429" t="s">
-        <v>144</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>1205</v>
+      <c r="F429" s="2" t="s">
+        <v>1204</v>
       </c>
       <c r="G429" s="2" t="s">
         <v>1205</v>
@@ -13669,19 +13663,10 @@
         <v>1206</v>
       </c>
       <c r="B430" t="s">
-        <v>367</v>
-      </c>
-      <c r="C430" t="s">
-        <v>361</v>
+        <v>1207</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F430" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G430" s="2" t="s">
-        <v>1208</v>
+        <v>67</v>
       </c>
       <c r="H430" t="s">
         <v>12</v>
@@ -13689,13 +13674,22 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B431" t="s">
         <v>1209</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C431" t="s">
+        <v>889</v>
+      </c>
+      <c r="D431" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="D431" s="2" t="s">
-        <v>67</v>
+      <c r="F431" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>1211</v>
       </c>
       <c r="H431" t="s">
         <v>12</v>
@@ -13703,22 +13697,16 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B432" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C432" t="s">
-        <v>889</v>
+        <v>576</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F432" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G432" s="2" t="s">
-        <v>1214</v>
+        <v>67</v>
       </c>
       <c r="H432" t="s">
         <v>12</v>
@@ -13726,16 +13714,22 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B433" t="s">
         <v>1215</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C433" t="s">
+        <v>889</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G433" s="2" t="s">
         <v>1216</v>
-      </c>
-      <c r="C433" t="s">
-        <v>576</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H433" t="s">
         <v>12</v>
@@ -13748,17 +13742,8 @@
       <c r="B434" t="s">
         <v>1218</v>
       </c>
-      <c r="C434" t="s">
-        <v>889</v>
-      </c>
       <c r="D434" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="F434" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="G434" s="2" t="s">
-        <v>1219</v>
+        <v>67</v>
       </c>
       <c r="H434" t="s">
         <v>12</v>
@@ -13766,13 +13751,22 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B435" t="s">
         <v>1220</v>
       </c>
-      <c r="B435" t="s">
+      <c r="C435" t="s">
         <v>1221</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>67</v>
+        <v>1222</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>1223</v>
       </c>
       <c r="H435" t="s">
         <v>12</v>
@@ -13780,22 +13774,16 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B436" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C436" t="s">
-        <v>1224</v>
+        <v>144</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F436" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G436" s="2" t="s">
-        <v>1226</v>
+        <v>67</v>
       </c>
       <c r="H436" t="s">
         <v>12</v>
@@ -13803,13 +13791,10 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B437" t="s">
         <v>1227</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C437" t="s">
-        <v>144</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>67</v>
@@ -13820,13 +13805,19 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B438" t="s">
         <v>1229</v>
       </c>
-      <c r="B438" t="s">
-        <v>1230</v>
+      <c r="C438" t="s">
+        <v>130</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>67</v>
+        <v>351</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="H438" t="s">
         <v>12</v>
@@ -13834,19 +13825,19 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B439" t="s">
         <v>1231</v>
       </c>
-      <c r="B439" t="s">
-        <v>1232</v>
-      </c>
       <c r="C439" t="s">
-        <v>130</v>
+        <v>889</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>351</v>
+        <v>599</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>351</v>
+        <v>599</v>
       </c>
       <c r="H439" t="s">
         <v>12</v>
@@ -13854,19 +13845,16 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B440" t="s">
+        <v>222</v>
+      </c>
+      <c r="D440" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="B440" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C440" t="s">
-        <v>889</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="F440" s="2" t="s">
-        <v>599</v>
+        <v>1233</v>
       </c>
       <c r="H440" t="s">
         <v>12</v>
@@ -13874,10 +13862,13 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B441" t="s">
         <v>1235</v>
       </c>
-      <c r="B441" t="s">
-        <v>222</v>
+      <c r="C441" t="s">
+        <v>139</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>1236</v>
@@ -13885,25 +13876,28 @@
       <c r="F441" s="2" t="s">
         <v>1236</v>
       </c>
+      <c r="G441" s="2" t="s">
+        <v>1237</v>
+      </c>
       <c r="H441" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B442" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C442" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>1239</v>
+        <v>766</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>1239</v>
+        <v>766</v>
       </c>
       <c r="G442" s="2" t="s">
         <v>1240</v>
@@ -13920,16 +13914,10 @@
         <v>1242</v>
       </c>
       <c r="C443" t="s">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="F443" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="G443" s="2" t="s">
-        <v>1243</v>
+        <v>67</v>
       </c>
       <c r="H443" t="s">
         <v>12</v>
@@ -13937,16 +13925,22 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B444" t="s">
         <v>1244</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1245</v>
       </c>
       <c r="C444" t="s">
         <v>144</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>67</v>
+        <v>566</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="H444" t="s">
         <v>12</v>
@@ -13954,10 +13948,10 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B445" t="s">
         <v>1246</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1247</v>
       </c>
       <c r="C445" t="s">
         <v>144</v>
@@ -13977,22 +13971,16 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B446" t="s">
         <v>1248</v>
-      </c>
-      <c r="B446" t="s">
-        <v>1249</v>
       </c>
       <c r="C446" t="s">
         <v>144</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F446" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>567</v>
+        <v>67</v>
       </c>
       <c r="H446" t="s">
         <v>12</v>
@@ -14000,16 +13988,22 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B447" t="s">
         <v>1250</v>
       </c>
-      <c r="B447" t="s">
+      <c r="C447" t="s">
+        <v>650</v>
+      </c>
+      <c r="D447" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="C447" t="s">
-        <v>144</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>67</v>
+      <c r="F447" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>1252</v>
       </c>
       <c r="H447" t="s">
         <v>12</v>
@@ -14017,19 +14011,16 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B448" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C448" t="s">
-        <v>650</v>
+        <v>144</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F448" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G448" s="2" t="s">
         <v>1255</v>
@@ -14051,7 +14042,7 @@
       <c r="D449" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="G449" s="2" t="s">
+      <c r="F449" s="2" t="s">
         <v>1258</v>
       </c>
       <c r="H449" t="s">
@@ -14066,13 +14057,13 @@
         <v>1260</v>
       </c>
       <c r="C450" t="s">
-        <v>144</v>
+        <v>1261</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F450" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>1262</v>
       </c>
       <c r="H450" t="s">
         <v>12</v>
@@ -14080,19 +14071,19 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B451" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C451" t="s">
-        <v>1264</v>
+        <v>889</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G451" s="2" t="s">
-        <v>1265</v>
+        <v>599</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="H451" t="s">
         <v>12</v>
@@ -14100,19 +14091,19 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B452" t="s">
         <v>1266</v>
       </c>
-      <c r="B452" t="s">
-        <v>1267</v>
-      </c>
       <c r="C452" t="s">
-        <v>889</v>
+        <v>1127</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>599</v>
+        <v>131</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>599</v>
+        <v>131</v>
       </c>
       <c r="H452" t="s">
         <v>12</v>
@@ -14120,19 +14111,19 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B453" t="s">
         <v>1268</v>
       </c>
-      <c r="B453" t="s">
+      <c r="D453" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="C453" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F453" s="2" t="s">
-        <v>131</v>
+        <v>1269</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>1270</v>
       </c>
       <c r="H453" t="s">
         <v>12</v>
@@ -14140,19 +14131,13 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B454" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F454" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G454" s="2" t="s">
-        <v>1273</v>
+        <v>67</v>
       </c>
       <c r="H454" t="s">
         <v>12</v>
@@ -14160,13 +14145,22 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B455" t="s">
         <v>1274</v>
       </c>
-      <c r="B455" t="s">
-        <v>1275</v>
+      <c r="C455" t="s">
+        <v>576</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>67</v>
+        <v>131</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="H455" t="s">
         <v>12</v>
@@ -14174,22 +14168,19 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B456" t="s">
         <v>1276</v>
       </c>
-      <c r="B456" t="s">
+      <c r="C456" t="s">
+        <v>144</v>
+      </c>
+      <c r="D456" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="C456" t="s">
-        <v>576</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F456" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G456" s="2" t="s">
-        <v>132</v>
+        <v>1277</v>
       </c>
       <c r="H456" t="s">
         <v>12</v>
@@ -14208,7 +14199,7 @@
       <c r="D457" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="F457" s="2" t="s">
+      <c r="G457" s="2" t="s">
         <v>1280</v>
       </c>
       <c r="H457" t="s">
@@ -14223,13 +14214,16 @@
         <v>1282</v>
       </c>
       <c r="C458" t="s">
-        <v>144</v>
+        <v>1283</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>1284</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H458" t="s">
         <v>12</v>
@@ -14237,22 +14231,22 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B459" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G459" s="2" t="s">
         <v>1285</v>
-      </c>
-      <c r="C459" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F459" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G459" s="2" t="s">
-        <v>1288</v>
       </c>
       <c r="H459" t="s">
         <v>12</v>
@@ -14260,13 +14254,13 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B460" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C460" t="s">
-        <v>1291</v>
+        <v>144</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>1292</v>
@@ -14275,7 +14269,7 @@
         <v>1292</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="H460" t="s">
         <v>12</v>
@@ -14283,19 +14277,16 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B461" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C461" t="s">
         <v>144</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F461" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="G461" s="2" t="s">
         <v>1296</v>
@@ -14312,13 +14303,16 @@
         <v>1298</v>
       </c>
       <c r="C462" t="s">
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="D462" s="2" t="s">
         <v>1299</v>
       </c>
+      <c r="F462" s="2" t="s">
+        <v>1299</v>
+      </c>
       <c r="G462" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H462" t="s">
         <v>12</v>
@@ -14326,21 +14320,15 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B463" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C463" t="s">
-        <v>576</v>
+        <v>1302</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G463" s="2" t="s">
         <v>1303</v>
       </c>
       <c r="H463" t="s">
@@ -14352,13 +14340,13 @@
         <v>1304</v>
       </c>
       <c r="B464" t="s">
-        <v>1305</v>
+        <v>178</v>
+      </c>
+      <c r="C464" t="s">
+        <v>144</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F464" s="2" t="s">
-        <v>1306</v>
+        <v>67</v>
       </c>
       <c r="H464" t="s">
         <v>12</v>
@@ -14366,16 +14354,22 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C465" t="s">
+        <v>576</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="B465" t="s">
-        <v>178</v>
-      </c>
-      <c r="C465" t="s">
-        <v>144</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>67</v>
+      <c r="F465" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>1308</v>
       </c>
       <c r="H465" t="s">
         <v>12</v>
@@ -14383,22 +14377,13 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B466" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C466" t="s">
-        <v>576</v>
+        <v>1310</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F466" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G466" s="2" t="s">
-        <v>1311</v>
+        <v>67</v>
       </c>
       <c r="H466" t="s">
         <v>12</v>
@@ -14406,13 +14391,22 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B467" t="s">
         <v>1312</v>
       </c>
-      <c r="B467" t="s">
-        <v>1313</v>
+      <c r="C467" t="s">
+        <v>144</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>67</v>
+        <v>566</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="H467" t="s">
         <v>12</v>
@@ -14420,22 +14414,13 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B468" t="s">
         <v>1314</v>
       </c>
-      <c r="B468" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C468" t="s">
-        <v>144</v>
-      </c>
       <c r="D468" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F468" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G468" s="2" t="s">
-        <v>567</v>
+        <v>67</v>
       </c>
       <c r="H468" t="s">
         <v>12</v>
@@ -14443,10 +14428,10 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B469" t="s">
         <v>1316</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1317</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>67</v>
@@ -14457,13 +14442,16 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B470" t="s">
         <v>1318</v>
       </c>
-      <c r="B470" t="s">
+      <c r="D470" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="D470" s="2" t="s">
-        <v>67</v>
+      <c r="E470" s="2" t="s">
+        <v>1319</v>
       </c>
       <c r="H470" t="s">
         <v>12</v>
@@ -14476,11 +14464,14 @@
       <c r="B471" t="s">
         <v>1321</v>
       </c>
+      <c r="C471" t="s">
+        <v>376</v>
+      </c>
       <c r="D471" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E471" s="2" t="s">
-        <v>1322</v>
+        <v>397</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="H471" t="s">
         <v>12</v>
@@ -14488,19 +14479,19 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B472" t="s">
         <v>1323</v>
       </c>
-      <c r="B472" t="s">
+      <c r="D472" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="C472" t="s">
-        <v>376</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>397</v>
+      <c r="F472" s="2" t="s">
+        <v>1324</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>397</v>
+        <v>1325</v>
       </c>
       <c r="H472" t="s">
         <v>12</v>
@@ -14508,19 +14499,19 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B473" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H473" t="s">
         <v>12</v>
@@ -14528,19 +14519,22 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B474" t="s">
-        <v>1330</v>
+        <v>1331</v>
+      </c>
+      <c r="C474" t="s">
+        <v>15</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H474" t="s">
         <v>12</v>
@@ -14548,22 +14542,19 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B475" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C475" t="s">
-        <v>15</v>
+        <v>1335</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H475" t="s">
         <v>12</v>
@@ -14571,18 +14562,15 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B476" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G476" s="2" t="s">
         <v>1340</v>
       </c>
       <c r="H476" t="s">
@@ -14596,34 +14584,34 @@
       <c r="B477" t="s">
         <v>1342</v>
       </c>
+      <c r="C477" t="s">
+        <v>130</v>
+      </c>
       <c r="D477" s="2" t="s">
         <v>1343</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>1343</v>
       </c>
+      <c r="G477" s="2" t="s">
+        <v>1344</v>
+      </c>
       <c r="H477" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B478" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C478" t="s">
-        <v>130</v>
+        <v>576</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F478" s="2" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G478" s="2" t="s">
-        <v>1347</v>
+        <v>67</v>
       </c>
       <c r="H478" t="s">
         <v>12</v>
@@ -14631,16 +14619,22 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B479" t="s">
         <v>1348</v>
       </c>
-      <c r="B479" t="s">
+      <c r="C479" t="s">
         <v>1349</v>
       </c>
-      <c r="C479" t="s">
-        <v>576</v>
-      </c>
       <c r="D479" s="2" t="s">
-        <v>67</v>
+        <v>1289</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G479" s="2" t="s">
+        <v>1285</v>
       </c>
       <c r="H479" t="s">
         <v>12</v>
@@ -14654,16 +14648,13 @@
         <v>1351</v>
       </c>
       <c r="C480" t="s">
-        <v>1352</v>
+        <v>144</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1292</v>
+        <v>719</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G480" s="2" t="s">
-        <v>1288</v>
+        <v>719</v>
       </c>
       <c r="H480" t="s">
         <v>12</v>
@@ -14671,19 +14662,19 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B481" t="s">
         <v>1353</v>
       </c>
-      <c r="B481" t="s">
-        <v>1354</v>
-      </c>
       <c r="C481" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>719</v>
+        <v>607</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>719</v>
+        <v>607</v>
       </c>
       <c r="H481" t="s">
         <v>12</v>
@@ -14691,19 +14682,19 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B482" t="s">
         <v>1355</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
+        <v>144</v>
+      </c>
+      <c r="D482" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="C482" t="s">
-        <v>339</v>
-      </c>
-      <c r="D482" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F482" s="2" t="s">
-        <v>607</v>
+      <c r="G482" s="2" t="s">
+        <v>1356</v>
       </c>
       <c r="H482" t="s">
         <v>12</v>
@@ -14716,14 +14707,14 @@
       <c r="B483" t="s">
         <v>1358</v>
       </c>
-      <c r="C483" t="s">
-        <v>144</v>
-      </c>
       <c r="D483" s="2" t="s">
         <v>1359</v>
       </c>
+      <c r="F483" s="2" t="s">
+        <v>1359</v>
+      </c>
       <c r="G483" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H483" t="s">
         <v>12</v>
@@ -14731,16 +14722,19 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B484" t="s">
-        <v>1361</v>
+        <v>1362</v>
+      </c>
+      <c r="C484" t="s">
+        <v>576</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="G484" s="2" t="s">
         <v>1363</v>
@@ -14760,7 +14754,13 @@
         <v>576</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>67</v>
+        <v>1359</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>1363</v>
       </c>
       <c r="H485" t="s">
         <v>12</v>
@@ -14777,13 +14777,13 @@
         <v>576</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="H486" t="s">
         <v>12</v>
@@ -14791,22 +14791,22 @@
     </row>
     <row r="487" spans="1:8">
       <c r="A487" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B487" t="s">
         <v>1369</v>
       </c>
-      <c r="B487" t="s">
+      <c r="C487" t="s">
+        <v>339</v>
+      </c>
+      <c r="D487" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="C487" t="s">
-        <v>576</v>
-      </c>
-      <c r="D487" s="2" t="s">
-        <v>1362</v>
-      </c>
       <c r="F487" s="2" t="s">
-        <v>1362</v>
+        <v>1370</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>1368</v>
+        <v>706</v>
       </c>
       <c r="H487" t="s">
         <v>12</v>
@@ -14819,17 +14819,8 @@
       <c r="B488" t="s">
         <v>1372</v>
       </c>
-      <c r="C488" t="s">
-        <v>576</v>
-      </c>
       <c r="D488" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F488" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G488" s="2" t="s">
-        <v>1368</v>
+        <v>67</v>
       </c>
       <c r="H488" t="s">
         <v>12</v>
@@ -14840,19 +14831,13 @@
         <v>1373</v>
       </c>
       <c r="B489" t="s">
-        <v>1374</v>
+        <v>379</v>
       </c>
       <c r="C489" t="s">
         <v>339</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F489" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="G489" s="2" t="s">
-        <v>706</v>
+        <v>67</v>
       </c>
       <c r="H489" t="s">
         <v>12</v>
@@ -14860,13 +14845,19 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B490" t="s">
-        <v>1377</v>
+        <v>1375</v>
+      </c>
+      <c r="C490" t="s">
+        <v>376</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>67</v>
+        <v>397</v>
+      </c>
+      <c r="G490" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="H490" t="s">
         <v>12</v>
@@ -14874,16 +14865,22 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B491" t="s">
-        <v>379</v>
+        <v>1377</v>
       </c>
       <c r="C491" t="s">
         <v>339</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>67</v>
+        <v>1378</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G491" s="2" t="s">
+        <v>1379</v>
       </c>
       <c r="H491" t="s">
         <v>12</v>
@@ -14891,19 +14888,16 @@
     </row>
     <row r="492" spans="1:8">
       <c r="A492" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B492" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C492" t="s">
-        <v>376</v>
+        <v>1381</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G492" s="2" t="s">
-        <v>397</v>
+        <v>1382</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>1382</v>
       </c>
       <c r="H492" t="s">
         <v>12</v>
@@ -14911,22 +14905,16 @@
     </row>
     <row r="493" spans="1:8">
       <c r="A493" s="2" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B493" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C493" t="s">
-        <v>339</v>
+        <v>1384</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F493" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G493" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>1385</v>
       </c>
       <c r="H493" t="s">
         <v>12</v>
@@ -14934,16 +14922,13 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B494" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F494" s="2" t="s">
-        <v>1387</v>
+        <v>67</v>
       </c>
       <c r="H494" t="s">
         <v>12</v>
@@ -14956,10 +14941,16 @@
       <c r="B495" t="s">
         <v>1389</v>
       </c>
+      <c r="C495" t="s">
+        <v>343</v>
+      </c>
       <c r="D495" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="E495" s="2" t="s">
+      <c r="F495" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G495" s="2" t="s">
         <v>1390</v>
       </c>
       <c r="H495" t="s">
@@ -14973,8 +14964,17 @@
       <c r="B496" t="s">
         <v>1392</v>
       </c>
+      <c r="C496" t="s">
+        <v>144</v>
+      </c>
       <c r="D496" s="2" t="s">
-        <v>67</v>
+        <v>566</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G496" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="H496" t="s">
         <v>12</v>
@@ -14988,15 +14988,12 @@
         <v>1394</v>
       </c>
       <c r="C497" t="s">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>1395</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G497" s="2" t="s">
         <v>1395</v>
       </c>
       <c r="H497" t="s">
@@ -15014,13 +15011,10 @@
         <v>144</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F498" s="2" t="s">
-        <v>566</v>
+        <v>1398</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>567</v>
+        <v>1398</v>
       </c>
       <c r="H498" t="s">
         <v>12</v>
@@ -15028,19 +15022,16 @@
     </row>
     <row r="499" spans="1:8">
       <c r="A499" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B499" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C499" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F499" s="2" t="s">
-        <v>1400</v>
+        <v>67</v>
       </c>
       <c r="H499" t="s">
         <v>12</v>
@@ -15054,13 +15045,10 @@
         <v>1402</v>
       </c>
       <c r="C500" t="s">
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G500" s="2" t="s">
-        <v>1403</v>
+        <v>67</v>
       </c>
       <c r="H500" t="s">
         <v>12</v>
@@ -15068,16 +15056,22 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B501" t="s">
+        <v>222</v>
+      </c>
+      <c r="C501" t="s">
+        <v>544</v>
+      </c>
+      <c r="D501" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="B501" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C501" t="s">
-        <v>144</v>
-      </c>
-      <c r="D501" s="2" t="s">
-        <v>67</v>
+      <c r="F501" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G501" s="2" t="s">
+        <v>1199</v>
       </c>
       <c r="H501" t="s">
         <v>12</v>
@@ -15085,10 +15079,10 @@
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B502" t="s">
         <v>1406</v>
-      </c>
-      <c r="B502" t="s">
-        <v>1407</v>
       </c>
       <c r="C502" t="s">
         <v>576</v>
@@ -15102,22 +15096,16 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B503" t="s">
         <v>1408</v>
       </c>
-      <c r="B503" t="s">
-        <v>222</v>
-      </c>
       <c r="C503" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F503" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G503" s="2" t="s">
-        <v>1202</v>
+        <v>67</v>
       </c>
       <c r="H503" t="s">
         <v>12</v>
@@ -15125,13 +15113,13 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B504" t="s">
         <v>1410</v>
       </c>
-      <c r="B504" t="s">
-        <v>1411</v>
-      </c>
       <c r="C504" t="s">
-        <v>576</v>
+        <v>144</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>67</v>
@@ -15142,10 +15130,10 @@
     </row>
     <row r="505" spans="1:8">
       <c r="A505" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B505" t="s">
         <v>1412</v>
-      </c>
-      <c r="B505" t="s">
-        <v>1413</v>
       </c>
       <c r="C505" t="s">
         <v>576</v>
@@ -15159,16 +15147,22 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B506" t="s">
         <v>1414</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1415</v>
       </c>
       <c r="C506" t="s">
         <v>144</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>67</v>
+        <v>1415</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G506" s="2" t="s">
+        <v>1416</v>
       </c>
       <c r="H506" t="s">
         <v>12</v>
@@ -15176,13 +15170,10 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B507" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C507" t="s">
-        <v>576</v>
+        <v>1418</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>67</v>
@@ -15193,22 +15184,22 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B508" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C508" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1420</v>
+        <v>898</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>1420</v>
+        <v>898</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>1421</v>
+        <v>899</v>
       </c>
       <c r="H508" t="s">
         <v>12</v>
@@ -15216,13 +15207,22 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B509" t="s">
         <v>1422</v>
       </c>
-      <c r="B509" t="s">
+      <c r="C509" t="s">
+        <v>343</v>
+      </c>
+      <c r="D509" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="D509" s="2" t="s">
-        <v>67</v>
+      <c r="F509" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G509" s="2" t="s">
+        <v>1423</v>
       </c>
       <c r="H509" t="s">
         <v>12</v>
@@ -15236,16 +15236,16 @@
         <v>1425</v>
       </c>
       <c r="C510" t="s">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>898</v>
+        <v>1426</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>898</v>
+        <v>1426</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>899</v>
+        <v>1427</v>
       </c>
       <c r="H510" t="s">
         <v>12</v>
@@ -15253,22 +15253,16 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B511" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C511" t="s">
-        <v>343</v>
+        <v>1127</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F511" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G511" s="2" t="s">
-        <v>1428</v>
+        <v>67</v>
       </c>
       <c r="H511" t="s">
         <v>12</v>
@@ -15276,22 +15270,13 @@
     </row>
     <row r="512" spans="1:8">
       <c r="A512" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B512" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C512" t="s">
-        <v>144</v>
+        <v>1431</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F512" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G512" s="2" t="s">
-        <v>1432</v>
+        <v>67</v>
       </c>
       <c r="H512" t="s">
         <v>12</v>
@@ -15299,13 +15284,10 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B513" t="s">
         <v>1433</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1020</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>67</v>
@@ -15316,10 +15298,10 @@
     </row>
     <row r="514" spans="1:8">
       <c r="A514" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B514" t="s">
         <v>1435</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1436</v>
       </c>
       <c r="D514" s="2" t="s">
         <v>67</v>
@@ -15330,13 +15312,16 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B515" t="s">
         <v>1437</v>
       </c>
-      <c r="B515" t="s">
+      <c r="D515" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="D515" s="2" t="s">
-        <v>67</v>
+      <c r="F515" s="2" t="s">
+        <v>1438</v>
       </c>
       <c r="H515" t="s">
         <v>12</v>
@@ -15350,10 +15335,7 @@
         <v>1440</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F516" s="2" t="s">
-        <v>1441</v>
+        <v>67</v>
       </c>
       <c r="H516" t="s">
         <v>12</v>
@@ -15361,13 +15343,22 @@
     </row>
     <row r="517" spans="1:8">
       <c r="A517" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B517" t="s">
         <v>1442</v>
       </c>
-      <c r="B517" t="s">
+      <c r="C517" t="s">
+        <v>343</v>
+      </c>
+      <c r="D517" s="2" t="s">
         <v>1443</v>
       </c>
-      <c r="D517" s="2" t="s">
-        <v>67</v>
+      <c r="F517" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G517" s="2" t="s">
+        <v>1444</v>
       </c>
       <c r="H517" t="s">
         <v>12</v>
@@ -15375,22 +15366,16 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B518" t="s">
-        <v>1445</v>
+        <v>389</v>
       </c>
       <c r="C518" t="s">
-        <v>343</v>
+        <v>144</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F518" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G518" s="2" t="s">
-        <v>1447</v>
+        <v>67</v>
       </c>
       <c r="H518" t="s">
         <v>12</v>
@@ -15398,16 +15383,22 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" s="2" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B519" t="s">
-        <v>389</v>
+        <v>1447</v>
       </c>
       <c r="C519" t="s">
         <v>144</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>67</v>
+        <v>1448</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>1449</v>
       </c>
       <c r="H519" t="s">
         <v>12</v>
@@ -15415,19 +15406,19 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B520" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C520" t="s">
         <v>144</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1451</v>
+        <v>10</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>1451</v>
+        <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
         <v>1452</v>
@@ -15443,17 +15434,8 @@
       <c r="B521" t="s">
         <v>1454</v>
       </c>
-      <c r="C521" t="s">
-        <v>144</v>
-      </c>
       <c r="D521" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F521" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G521" s="2" t="s">
-        <v>1455</v>
+        <v>67</v>
       </c>
       <c r="H521" t="s">
         <v>12</v>
@@ -15461,13 +15443,22 @@
     </row>
     <row r="522" spans="1:8">
       <c r="A522" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B522" t="s">
         <v>1456</v>
       </c>
-      <c r="B522" t="s">
+      <c r="C522" t="s">
+        <v>144</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G522" s="2" t="s">
         <v>1457</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H522" t="s">
         <v>12</v>
@@ -15481,16 +15472,16 @@
         <v>1459</v>
       </c>
       <c r="C523" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>653</v>
+        <v>1460</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>653</v>
+        <v>1460</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H523" t="s">
         <v>12</v>
@@ -15498,21 +15489,18 @@
     </row>
     <row r="524" spans="1:8">
       <c r="A524" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B524" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C524" t="s">
         <v>139</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G524" s="2" t="s">
         <v>1464</v>
       </c>
       <c r="H524" t="s">
@@ -15527,13 +15515,13 @@
         <v>1466</v>
       </c>
       <c r="C525" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F525" s="2" t="s">
-        <v>1467</v>
+        <v>1073</v>
+      </c>
+      <c r="G525" s="2" t="s">
+        <v>1073</v>
       </c>
       <c r="H525" t="s">
         <v>12</v>
@@ -15541,19 +15529,19 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B526" t="s">
         <v>1468</v>
       </c>
-      <c r="B526" t="s">
-        <v>1469</v>
-      </c>
       <c r="C526" t="s">
-        <v>144</v>
+        <v>650</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G526" s="2" t="s">
-        <v>1077</v>
+        <v>545</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="H526" t="s">
         <v>12</v>
@@ -15561,10 +15549,10 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B527" t="s">
         <v>1470</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1471</v>
       </c>
       <c r="C527" t="s">
         <v>650</v>
@@ -15581,19 +15569,22 @@
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B528" t="s">
         <v>1472</v>
       </c>
-      <c r="B528" t="s">
+      <c r="C528" t="s">
+        <v>576</v>
+      </c>
+      <c r="D528" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="C528" t="s">
-        <v>650</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="F528" s="2" t="s">
-        <v>545</v>
+        <v>1473</v>
+      </c>
+      <c r="G528" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="H528" t="s">
         <v>12</v>
@@ -15607,16 +15598,10 @@
         <v>1475</v>
       </c>
       <c r="C529" t="s">
-        <v>576</v>
+        <v>1476</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="F529" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>608</v>
+        <v>67</v>
       </c>
       <c r="H529" t="s">
         <v>12</v>
@@ -15630,10 +15615,16 @@
         <v>1478</v>
       </c>
       <c r="C530" t="s">
+        <v>139</v>
+      </c>
+      <c r="D530" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="D530" s="2" t="s">
-        <v>67</v>
+      <c r="F530" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G530" s="2" t="s">
+        <v>1480</v>
       </c>
       <c r="H530" t="s">
         <v>12</v>
@@ -15641,22 +15632,22 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B531" t="s">
-        <v>1481</v>
+        <v>394</v>
       </c>
       <c r="C531" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>1482</v>
+        <v>766</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1482</v>
+        <v>766</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>1483</v>
+        <v>332</v>
       </c>
       <c r="H531" t="s">
         <v>12</v>
@@ -15664,22 +15655,22 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B532" t="s">
-        <v>394</v>
+        <v>1483</v>
       </c>
       <c r="C532" t="s">
         <v>335</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>766</v>
+        <v>1484</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>766</v>
+        <v>1484</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>332</v>
+        <v>1485</v>
       </c>
       <c r="H532" t="s">
         <v>12</v>
@@ -15687,22 +15678,22 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B533" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C533" t="s">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>1487</v>
+        <v>566</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>1487</v>
+        <v>566</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>1488</v>
+        <v>567</v>
       </c>
       <c r="H533" t="s">
         <v>12</v>
@@ -15710,22 +15701,22 @@
     </row>
     <row r="534" spans="1:8">
       <c r="A534" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B534" t="s">
         <v>1489</v>
       </c>
-      <c r="B534" t="s">
+      <c r="C534" t="s">
+        <v>15</v>
+      </c>
+      <c r="D534" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="C534" t="s">
-        <v>144</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="F534" s="2" t="s">
-        <v>566</v>
+        <v>1490</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>567</v>
+        <v>1491</v>
       </c>
       <c r="H534" t="s">
         <v>12</v>
@@ -15733,25 +15724,16 @@
     </row>
     <row r="535" spans="1:8">
       <c r="A535" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B535" t="s">
         <v>1492</v>
-      </c>
-      <c r="C535" t="s">
-        <v>15</v>
       </c>
       <c r="D535" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="F535" s="2" t="s">
+      <c r="E535" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="G535" s="2" t="s">
+      <c r="H535" t="s">
         <v>1494</v>
-      </c>
-      <c r="H535" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15765,137 +15747,123 @@
         <v>1496</v>
       </c>
       <c r="H536" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="537" spans="1:8">
       <c r="A537" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D537" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="D537" s="2" t="s">
-        <v>1499</v>
-      </c>
       <c r="E537" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H537" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="538" spans="1:8">
       <c r="A538" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D538" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="D538" s="2" t="s">
-        <v>1501</v>
-      </c>
       <c r="E538" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H538" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="539" spans="1:8">
       <c r="A539" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D539" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="D539" s="2" t="s">
-        <v>1503</v>
-      </c>
       <c r="E539" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H539" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="540" spans="1:8">
       <c r="A540" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D540" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="D540" s="2" t="s">
-        <v>1505</v>
-      </c>
       <c r="E540" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H540" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="541" spans="1:8">
       <c r="A541" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D541" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="D541" s="2" t="s">
-        <v>1507</v>
-      </c>
       <c r="E541" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H541" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="542" spans="1:8">
       <c r="A542" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D542" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="D542" s="2" t="s">
-        <v>1509</v>
-      </c>
       <c r="E542" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H542" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="543" spans="1:8">
       <c r="A543" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D543" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="D543" s="2" t="s">
-        <v>1511</v>
-      </c>
       <c r="E543" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H543" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="544" spans="1:8">
       <c r="A544" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D544" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="D544" s="2" t="s">
-        <v>1513</v>
-      </c>
       <c r="E544" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H544" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="A545" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E545" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H545" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I546"/>
+  <autoFilter ref="A1:I545"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -17042,18 +17010,18 @@
     <hyperlink ref="A357" r:id="rId1143"/>
     <hyperlink ref="D357" r:id="rId1144"/>
     <hyperlink ref="F357" r:id="rId1145"/>
-    <hyperlink ref="A358" r:id="rId1146"/>
-    <hyperlink ref="D358" r:id="rId1147"/>
-    <hyperlink ref="F358" r:id="rId1148"/>
-    <hyperlink ref="G358" r:id="rId1149"/>
-    <hyperlink ref="A359" r:id="rId1150"/>
-    <hyperlink ref="D359" r:id="rId1151"/>
-    <hyperlink ref="F359" r:id="rId1152"/>
-    <hyperlink ref="G359" r:id="rId1153"/>
-    <hyperlink ref="A360" r:id="rId1154"/>
-    <hyperlink ref="D360" r:id="rId1155"/>
-    <hyperlink ref="F360" r:id="rId1156"/>
-    <hyperlink ref="G360" r:id="rId1157"/>
+    <hyperlink ref="G357" r:id="rId1146"/>
+    <hyperlink ref="A358" r:id="rId1147"/>
+    <hyperlink ref="D358" r:id="rId1148"/>
+    <hyperlink ref="F358" r:id="rId1149"/>
+    <hyperlink ref="G358" r:id="rId1150"/>
+    <hyperlink ref="A359" r:id="rId1151"/>
+    <hyperlink ref="D359" r:id="rId1152"/>
+    <hyperlink ref="F359" r:id="rId1153"/>
+    <hyperlink ref="G359" r:id="rId1154"/>
+    <hyperlink ref="A360" r:id="rId1155"/>
+    <hyperlink ref="D360" r:id="rId1156"/>
+    <hyperlink ref="F360" r:id="rId1157"/>
     <hyperlink ref="A361" r:id="rId1158"/>
     <hyperlink ref="D361" r:id="rId1159"/>
     <hyperlink ref="F361" r:id="rId1160"/>
@@ -17063,21 +17031,21 @@
     <hyperlink ref="A363" r:id="rId1164"/>
     <hyperlink ref="D363" r:id="rId1165"/>
     <hyperlink ref="F363" r:id="rId1166"/>
-    <hyperlink ref="A364" r:id="rId1167"/>
-    <hyperlink ref="D364" r:id="rId1168"/>
-    <hyperlink ref="F364" r:id="rId1169"/>
-    <hyperlink ref="G364" r:id="rId1170"/>
+    <hyperlink ref="G363" r:id="rId1167"/>
+    <hyperlink ref="A364" r:id="rId1168"/>
+    <hyperlink ref="D364" r:id="rId1169"/>
+    <hyperlink ref="F364" r:id="rId1170"/>
     <hyperlink ref="A365" r:id="rId1171"/>
     <hyperlink ref="D365" r:id="rId1172"/>
-    <hyperlink ref="F365" r:id="rId1173"/>
-    <hyperlink ref="A366" r:id="rId1174"/>
-    <hyperlink ref="D366" r:id="rId1175"/>
+    <hyperlink ref="A366" r:id="rId1173"/>
+    <hyperlink ref="D366" r:id="rId1174"/>
+    <hyperlink ref="G366" r:id="rId1175"/>
     <hyperlink ref="A367" r:id="rId1176"/>
     <hyperlink ref="D367" r:id="rId1177"/>
-    <hyperlink ref="G367" r:id="rId1178"/>
-    <hyperlink ref="A368" r:id="rId1179"/>
-    <hyperlink ref="D368" r:id="rId1180"/>
-    <hyperlink ref="F368" r:id="rId1181"/>
+    <hyperlink ref="F367" r:id="rId1178"/>
+    <hyperlink ref="G367" r:id="rId1179"/>
+    <hyperlink ref="A368" r:id="rId1180"/>
+    <hyperlink ref="D368" r:id="rId1181"/>
     <hyperlink ref="G368" r:id="rId1182"/>
     <hyperlink ref="A369" r:id="rId1183"/>
     <hyperlink ref="D369" r:id="rId1184"/>
@@ -17087,184 +17055,184 @@
     <hyperlink ref="G370" r:id="rId1188"/>
     <hyperlink ref="A371" r:id="rId1189"/>
     <hyperlink ref="D371" r:id="rId1190"/>
-    <hyperlink ref="G371" r:id="rId1191"/>
-    <hyperlink ref="A372" r:id="rId1192"/>
-    <hyperlink ref="D372" r:id="rId1193"/>
-    <hyperlink ref="A373" r:id="rId1194"/>
-    <hyperlink ref="D373" r:id="rId1195"/>
-    <hyperlink ref="F373" r:id="rId1196"/>
-    <hyperlink ref="G373" r:id="rId1197"/>
-    <hyperlink ref="A374" r:id="rId1198"/>
-    <hyperlink ref="D374" r:id="rId1199"/>
-    <hyperlink ref="F374" r:id="rId1200"/>
-    <hyperlink ref="G374" r:id="rId1201" location="real-user-monitoring"/>
-    <hyperlink ref="A375" r:id="rId1202"/>
-    <hyperlink ref="D375" r:id="rId1203"/>
-    <hyperlink ref="F375" r:id="rId1204"/>
-    <hyperlink ref="G375" r:id="rId1205"/>
-    <hyperlink ref="A376" r:id="rId1206"/>
-    <hyperlink ref="D376" r:id="rId1207"/>
-    <hyperlink ref="F376" r:id="rId1208"/>
+    <hyperlink ref="A372" r:id="rId1191"/>
+    <hyperlink ref="D372" r:id="rId1192"/>
+    <hyperlink ref="F372" r:id="rId1193"/>
+    <hyperlink ref="G372" r:id="rId1194"/>
+    <hyperlink ref="A373" r:id="rId1195"/>
+    <hyperlink ref="D373" r:id="rId1196"/>
+    <hyperlink ref="F373" r:id="rId1197"/>
+    <hyperlink ref="G373" r:id="rId1198" location="real-user-monitoring"/>
+    <hyperlink ref="A374" r:id="rId1199"/>
+    <hyperlink ref="D374" r:id="rId1200"/>
+    <hyperlink ref="F374" r:id="rId1201"/>
+    <hyperlink ref="G374" r:id="rId1202"/>
+    <hyperlink ref="A375" r:id="rId1203"/>
+    <hyperlink ref="D375" r:id="rId1204"/>
+    <hyperlink ref="F375" r:id="rId1205"/>
+    <hyperlink ref="G375" r:id="rId1206"/>
+    <hyperlink ref="A376" r:id="rId1207"/>
+    <hyperlink ref="D376" r:id="rId1208"/>
     <hyperlink ref="G376" r:id="rId1209"/>
     <hyperlink ref="A377" r:id="rId1210"/>
     <hyperlink ref="D377" r:id="rId1211"/>
     <hyperlink ref="G377" r:id="rId1212"/>
     <hyperlink ref="A378" r:id="rId1213"/>
     <hyperlink ref="D378" r:id="rId1214"/>
-    <hyperlink ref="G378" r:id="rId1215"/>
-    <hyperlink ref="A379" r:id="rId1216"/>
-    <hyperlink ref="D379" r:id="rId1217"/>
-    <hyperlink ref="F379" r:id="rId1218"/>
-    <hyperlink ref="G379" r:id="rId1219" location="real-user-monitoring"/>
+    <hyperlink ref="F378" r:id="rId1215"/>
+    <hyperlink ref="G378" r:id="rId1216" location="real-user-monitoring"/>
+    <hyperlink ref="A379" r:id="rId1217"/>
+    <hyperlink ref="D379" r:id="rId1218"/>
+    <hyperlink ref="F379" r:id="rId1219"/>
     <hyperlink ref="A380" r:id="rId1220"/>
     <hyperlink ref="D380" r:id="rId1221"/>
-    <hyperlink ref="F380" r:id="rId1222"/>
+    <hyperlink ref="G380" r:id="rId1222"/>
     <hyperlink ref="A381" r:id="rId1223"/>
     <hyperlink ref="D381" r:id="rId1224"/>
     <hyperlink ref="G381" r:id="rId1225"/>
     <hyperlink ref="A382" r:id="rId1226"/>
     <hyperlink ref="D382" r:id="rId1227"/>
-    <hyperlink ref="G382" r:id="rId1228"/>
-    <hyperlink ref="A383" r:id="rId1229"/>
-    <hyperlink ref="D383" r:id="rId1230"/>
-    <hyperlink ref="F383" r:id="rId1231"/>
+    <hyperlink ref="F382" r:id="rId1228"/>
+    <hyperlink ref="G382" r:id="rId1229"/>
+    <hyperlink ref="A383" r:id="rId1230"/>
+    <hyperlink ref="D383" r:id="rId1231"/>
     <hyperlink ref="G383" r:id="rId1232"/>
     <hyperlink ref="A384" r:id="rId1233"/>
     <hyperlink ref="D384" r:id="rId1234"/>
-    <hyperlink ref="G384" r:id="rId1235"/>
-    <hyperlink ref="A385" r:id="rId1236"/>
-    <hyperlink ref="D385" r:id="rId1237"/>
-    <hyperlink ref="F385" r:id="rId1238"/>
-    <hyperlink ref="G385" r:id="rId1239"/>
-    <hyperlink ref="A386" r:id="rId1240"/>
-    <hyperlink ref="D386" r:id="rId1241"/>
-    <hyperlink ref="F386" r:id="rId1242"/>
-    <hyperlink ref="G386" r:id="rId1243"/>
-    <hyperlink ref="A387" r:id="rId1244"/>
-    <hyperlink ref="D387" r:id="rId1245"/>
-    <hyperlink ref="F387" r:id="rId1246"/>
-    <hyperlink ref="G387" r:id="rId1247"/>
-    <hyperlink ref="A388" r:id="rId1248"/>
-    <hyperlink ref="D388" r:id="rId1249"/>
-    <hyperlink ref="A389" r:id="rId1250"/>
-    <hyperlink ref="D389" r:id="rId1251"/>
-    <hyperlink ref="F389" r:id="rId1252"/>
-    <hyperlink ref="G389" r:id="rId1253"/>
-    <hyperlink ref="A390" r:id="rId1254"/>
-    <hyperlink ref="D390" r:id="rId1255"/>
-    <hyperlink ref="F390" r:id="rId1256"/>
-    <hyperlink ref="G390" r:id="rId1257" location="real-user-monitoring"/>
-    <hyperlink ref="A391" r:id="rId1258"/>
-    <hyperlink ref="D391" r:id="rId1259"/>
+    <hyperlink ref="F384" r:id="rId1235"/>
+    <hyperlink ref="G384" r:id="rId1236"/>
+    <hyperlink ref="A385" r:id="rId1237"/>
+    <hyperlink ref="D385" r:id="rId1238"/>
+    <hyperlink ref="F385" r:id="rId1239"/>
+    <hyperlink ref="G385" r:id="rId1240"/>
+    <hyperlink ref="A386" r:id="rId1241"/>
+    <hyperlink ref="D386" r:id="rId1242"/>
+    <hyperlink ref="F386" r:id="rId1243"/>
+    <hyperlink ref="G386" r:id="rId1244"/>
+    <hyperlink ref="A387" r:id="rId1245"/>
+    <hyperlink ref="D387" r:id="rId1246"/>
+    <hyperlink ref="A388" r:id="rId1247"/>
+    <hyperlink ref="D388" r:id="rId1248"/>
+    <hyperlink ref="F388" r:id="rId1249"/>
+    <hyperlink ref="G388" r:id="rId1250"/>
+    <hyperlink ref="A389" r:id="rId1251"/>
+    <hyperlink ref="D389" r:id="rId1252"/>
+    <hyperlink ref="F389" r:id="rId1253"/>
+    <hyperlink ref="G389" r:id="rId1254" location="real-user-monitoring"/>
+    <hyperlink ref="A390" r:id="rId1255"/>
+    <hyperlink ref="D390" r:id="rId1256"/>
+    <hyperlink ref="A391" r:id="rId1257"/>
+    <hyperlink ref="D391" r:id="rId1258"/>
+    <hyperlink ref="F391" r:id="rId1259"/>
     <hyperlink ref="A392" r:id="rId1260"/>
     <hyperlink ref="D392" r:id="rId1261"/>
     <hyperlink ref="F392" r:id="rId1262"/>
     <hyperlink ref="A393" r:id="rId1263"/>
     <hyperlink ref="D393" r:id="rId1264"/>
     <hyperlink ref="F393" r:id="rId1265"/>
-    <hyperlink ref="A394" r:id="rId1266"/>
-    <hyperlink ref="D394" r:id="rId1267"/>
-    <hyperlink ref="F394" r:id="rId1268"/>
-    <hyperlink ref="G394" r:id="rId1269"/>
-    <hyperlink ref="A395" r:id="rId1270"/>
-    <hyperlink ref="D395" r:id="rId1271"/>
-    <hyperlink ref="F395" r:id="rId1272"/>
-    <hyperlink ref="G395" r:id="rId1273"/>
-    <hyperlink ref="A396" r:id="rId1274"/>
-    <hyperlink ref="D396" r:id="rId1275"/>
-    <hyperlink ref="A397" r:id="rId1276"/>
-    <hyperlink ref="D397" r:id="rId1277"/>
-    <hyperlink ref="A398" r:id="rId1278"/>
-    <hyperlink ref="D398" r:id="rId1279"/>
-    <hyperlink ref="F398" r:id="rId1280"/>
+    <hyperlink ref="G393" r:id="rId1266"/>
+    <hyperlink ref="A394" r:id="rId1267"/>
+    <hyperlink ref="D394" r:id="rId1268"/>
+    <hyperlink ref="F394" r:id="rId1269"/>
+    <hyperlink ref="G394" r:id="rId1270"/>
+    <hyperlink ref="A395" r:id="rId1271"/>
+    <hyperlink ref="D395" r:id="rId1272"/>
+    <hyperlink ref="A396" r:id="rId1273"/>
+    <hyperlink ref="D396" r:id="rId1274"/>
+    <hyperlink ref="A397" r:id="rId1275"/>
+    <hyperlink ref="D397" r:id="rId1276"/>
+    <hyperlink ref="F397" r:id="rId1277"/>
+    <hyperlink ref="G397" r:id="rId1278"/>
+    <hyperlink ref="A398" r:id="rId1279"/>
+    <hyperlink ref="D398" r:id="rId1280"/>
     <hyperlink ref="G398" r:id="rId1281"/>
     <hyperlink ref="A399" r:id="rId1282"/>
     <hyperlink ref="D399" r:id="rId1283"/>
-    <hyperlink ref="G399" r:id="rId1284"/>
-    <hyperlink ref="A400" r:id="rId1285"/>
-    <hyperlink ref="D400" r:id="rId1286"/>
-    <hyperlink ref="A401" r:id="rId1287"/>
-    <hyperlink ref="D401" r:id="rId1288"/>
+    <hyperlink ref="A400" r:id="rId1284"/>
+    <hyperlink ref="D400" r:id="rId1285"/>
+    <hyperlink ref="A401" r:id="rId1286"/>
+    <hyperlink ref="D401" r:id="rId1287"/>
+    <hyperlink ref="F401" r:id="rId1288"/>
     <hyperlink ref="A402" r:id="rId1289"/>
     <hyperlink ref="D402" r:id="rId1290"/>
-    <hyperlink ref="F402" r:id="rId1291"/>
+    <hyperlink ref="G402" r:id="rId1291"/>
     <hyperlink ref="A403" r:id="rId1292"/>
     <hyperlink ref="D403" r:id="rId1293"/>
-    <hyperlink ref="G403" r:id="rId1294"/>
-    <hyperlink ref="A404" r:id="rId1295"/>
-    <hyperlink ref="D404" r:id="rId1296"/>
-    <hyperlink ref="A405" r:id="rId1297"/>
-    <hyperlink ref="D405" r:id="rId1298"/>
-    <hyperlink ref="F405" r:id="rId1299"/>
-    <hyperlink ref="G405" r:id="rId1300"/>
-    <hyperlink ref="A406" r:id="rId1301"/>
-    <hyperlink ref="D406" r:id="rId1302"/>
-    <hyperlink ref="F406" r:id="rId1303"/>
+    <hyperlink ref="A404" r:id="rId1294"/>
+    <hyperlink ref="D404" r:id="rId1295"/>
+    <hyperlink ref="F404" r:id="rId1296"/>
+    <hyperlink ref="G404" r:id="rId1297"/>
+    <hyperlink ref="A405" r:id="rId1298"/>
+    <hyperlink ref="D405" r:id="rId1299"/>
+    <hyperlink ref="F405" r:id="rId1300"/>
+    <hyperlink ref="G405" r:id="rId1301"/>
+    <hyperlink ref="A406" r:id="rId1302"/>
+    <hyperlink ref="D406" r:id="rId1303"/>
     <hyperlink ref="G406" r:id="rId1304"/>
     <hyperlink ref="A407" r:id="rId1305"/>
     <hyperlink ref="D407" r:id="rId1306"/>
-    <hyperlink ref="G407" r:id="rId1307"/>
-    <hyperlink ref="A408" r:id="rId1308"/>
-    <hyperlink ref="D408" r:id="rId1309"/>
+    <hyperlink ref="A408" r:id="rId1307"/>
+    <hyperlink ref="D408" r:id="rId1308"/>
+    <hyperlink ref="F408" r:id="rId1309"/>
     <hyperlink ref="A409" r:id="rId1310"/>
     <hyperlink ref="D409" r:id="rId1311"/>
     <hyperlink ref="F409" r:id="rId1312"/>
-    <hyperlink ref="A410" r:id="rId1313"/>
-    <hyperlink ref="D410" r:id="rId1314"/>
-    <hyperlink ref="F410" r:id="rId1315"/>
-    <hyperlink ref="G410" r:id="rId1316"/>
-    <hyperlink ref="A411" r:id="rId1317"/>
-    <hyperlink ref="D411" r:id="rId1318"/>
-    <hyperlink ref="F411" r:id="rId1319"/>
-    <hyperlink ref="G411" r:id="rId1320"/>
-    <hyperlink ref="A412" r:id="rId1321"/>
-    <hyperlink ref="D412" r:id="rId1322"/>
-    <hyperlink ref="F412" r:id="rId1323"/>
-    <hyperlink ref="G412" r:id="rId1324"/>
-    <hyperlink ref="A413" r:id="rId1325"/>
-    <hyperlink ref="D413" r:id="rId1326"/>
-    <hyperlink ref="F413" r:id="rId1327"/>
-    <hyperlink ref="G413" r:id="rId1328" location="real-user-monitoring"/>
-    <hyperlink ref="A414" r:id="rId1329"/>
-    <hyperlink ref="D414" r:id="rId1330"/>
-    <hyperlink ref="F414" r:id="rId1331"/>
+    <hyperlink ref="G409" r:id="rId1313"/>
+    <hyperlink ref="A410" r:id="rId1314"/>
+    <hyperlink ref="D410" r:id="rId1315"/>
+    <hyperlink ref="F410" r:id="rId1316"/>
+    <hyperlink ref="G410" r:id="rId1317"/>
+    <hyperlink ref="A411" r:id="rId1318"/>
+    <hyperlink ref="D411" r:id="rId1319"/>
+    <hyperlink ref="F411" r:id="rId1320"/>
+    <hyperlink ref="G411" r:id="rId1321"/>
+    <hyperlink ref="A412" r:id="rId1322"/>
+    <hyperlink ref="D412" r:id="rId1323"/>
+    <hyperlink ref="F412" r:id="rId1324"/>
+    <hyperlink ref="G412" r:id="rId1325" location="real-user-monitoring"/>
+    <hyperlink ref="A413" r:id="rId1326"/>
+    <hyperlink ref="D413" r:id="rId1327"/>
+    <hyperlink ref="F413" r:id="rId1328"/>
+    <hyperlink ref="G413" r:id="rId1329"/>
+    <hyperlink ref="A414" r:id="rId1330"/>
+    <hyperlink ref="D414" r:id="rId1331"/>
     <hyperlink ref="G414" r:id="rId1332"/>
     <hyperlink ref="A415" r:id="rId1333"/>
     <hyperlink ref="D415" r:id="rId1334"/>
     <hyperlink ref="G415" r:id="rId1335"/>
     <hyperlink ref="A416" r:id="rId1336"/>
     <hyperlink ref="D416" r:id="rId1337"/>
-    <hyperlink ref="G416" r:id="rId1338"/>
-    <hyperlink ref="A417" r:id="rId1339"/>
-    <hyperlink ref="D417" r:id="rId1340"/>
-    <hyperlink ref="F417" r:id="rId1341"/>
-    <hyperlink ref="G417" r:id="rId1342"/>
-    <hyperlink ref="A418" r:id="rId1343"/>
-    <hyperlink ref="D418" r:id="rId1344"/>
+    <hyperlink ref="F416" r:id="rId1338"/>
+    <hyperlink ref="G416" r:id="rId1339"/>
+    <hyperlink ref="A417" r:id="rId1340"/>
+    <hyperlink ref="D417" r:id="rId1341"/>
+    <hyperlink ref="A418" r:id="rId1342"/>
+    <hyperlink ref="D418" r:id="rId1343"/>
+    <hyperlink ref="F418" r:id="rId1344"/>
     <hyperlink ref="A419" r:id="rId1345"/>
     <hyperlink ref="D419" r:id="rId1346"/>
-    <hyperlink ref="F419" r:id="rId1347"/>
+    <hyperlink ref="G419" r:id="rId1347"/>
     <hyperlink ref="A420" r:id="rId1348"/>
     <hyperlink ref="D420" r:id="rId1349"/>
-    <hyperlink ref="G420" r:id="rId1350"/>
-    <hyperlink ref="A421" r:id="rId1351"/>
-    <hyperlink ref="D421" r:id="rId1352"/>
+    <hyperlink ref="A421" r:id="rId1350"/>
+    <hyperlink ref="D421" r:id="rId1351"/>
+    <hyperlink ref="G421" r:id="rId1352"/>
     <hyperlink ref="A422" r:id="rId1353"/>
     <hyperlink ref="D422" r:id="rId1354"/>
     <hyperlink ref="G422" r:id="rId1355"/>
     <hyperlink ref="A423" r:id="rId1356"/>
     <hyperlink ref="D423" r:id="rId1357"/>
-    <hyperlink ref="G423" r:id="rId1358"/>
-    <hyperlink ref="A424" r:id="rId1359"/>
-    <hyperlink ref="D424" r:id="rId1360"/>
-    <hyperlink ref="F424" r:id="rId1361"/>
-    <hyperlink ref="G424" r:id="rId1362"/>
-    <hyperlink ref="A425" r:id="rId1363"/>
-    <hyperlink ref="D425" r:id="rId1364"/>
-    <hyperlink ref="F425" r:id="rId1365"/>
-    <hyperlink ref="G425" r:id="rId1366"/>
-    <hyperlink ref="A426" r:id="rId1367"/>
-    <hyperlink ref="D426" r:id="rId1368"/>
+    <hyperlink ref="F423" r:id="rId1358"/>
+    <hyperlink ref="G423" r:id="rId1359"/>
+    <hyperlink ref="A424" r:id="rId1360"/>
+    <hyperlink ref="D424" r:id="rId1361"/>
+    <hyperlink ref="F424" r:id="rId1362"/>
+    <hyperlink ref="G424" r:id="rId1363"/>
+    <hyperlink ref="A425" r:id="rId1364"/>
+    <hyperlink ref="D425" r:id="rId1365"/>
+    <hyperlink ref="A426" r:id="rId1366"/>
+    <hyperlink ref="D426" r:id="rId1367"/>
+    <hyperlink ref="G426" r:id="rId1368"/>
     <hyperlink ref="A427" r:id="rId1369"/>
     <hyperlink ref="D427" r:id="rId1370"/>
     <hyperlink ref="G427" r:id="rId1371"/>
@@ -17273,341 +17241,341 @@
     <hyperlink ref="G428" r:id="rId1374"/>
     <hyperlink ref="A429" r:id="rId1375"/>
     <hyperlink ref="D429" r:id="rId1376"/>
-    <hyperlink ref="G429" r:id="rId1377"/>
-    <hyperlink ref="A430" r:id="rId1378"/>
-    <hyperlink ref="D430" r:id="rId1379"/>
-    <hyperlink ref="F430" r:id="rId1380"/>
-    <hyperlink ref="G430" r:id="rId1381"/>
-    <hyperlink ref="A431" r:id="rId1382"/>
-    <hyperlink ref="D431" r:id="rId1383"/>
-    <hyperlink ref="A432" r:id="rId1384"/>
-    <hyperlink ref="D432" r:id="rId1385"/>
-    <hyperlink ref="F432" r:id="rId1386"/>
-    <hyperlink ref="G432" r:id="rId1387"/>
-    <hyperlink ref="A433" r:id="rId1388"/>
-    <hyperlink ref="D433" r:id="rId1389"/>
-    <hyperlink ref="A434" r:id="rId1390"/>
-    <hyperlink ref="D434" r:id="rId1391"/>
-    <hyperlink ref="F434" r:id="rId1392"/>
-    <hyperlink ref="G434" r:id="rId1393"/>
-    <hyperlink ref="A435" r:id="rId1394"/>
-    <hyperlink ref="D435" r:id="rId1395"/>
-    <hyperlink ref="A436" r:id="rId1396"/>
-    <hyperlink ref="D436" r:id="rId1397"/>
-    <hyperlink ref="F436" r:id="rId1398"/>
-    <hyperlink ref="G436" r:id="rId1399"/>
-    <hyperlink ref="A437" r:id="rId1400"/>
-    <hyperlink ref="D437" r:id="rId1401"/>
-    <hyperlink ref="A438" r:id="rId1402"/>
-    <hyperlink ref="D438" r:id="rId1403"/>
+    <hyperlink ref="F429" r:id="rId1377"/>
+    <hyperlink ref="G429" r:id="rId1378"/>
+    <hyperlink ref="A430" r:id="rId1379"/>
+    <hyperlink ref="D430" r:id="rId1380"/>
+    <hyperlink ref="A431" r:id="rId1381"/>
+    <hyperlink ref="D431" r:id="rId1382"/>
+    <hyperlink ref="F431" r:id="rId1383"/>
+    <hyperlink ref="G431" r:id="rId1384"/>
+    <hyperlink ref="A432" r:id="rId1385"/>
+    <hyperlink ref="D432" r:id="rId1386"/>
+    <hyperlink ref="A433" r:id="rId1387"/>
+    <hyperlink ref="D433" r:id="rId1388"/>
+    <hyperlink ref="F433" r:id="rId1389"/>
+    <hyperlink ref="G433" r:id="rId1390"/>
+    <hyperlink ref="A434" r:id="rId1391"/>
+    <hyperlink ref="D434" r:id="rId1392"/>
+    <hyperlink ref="A435" r:id="rId1393"/>
+    <hyperlink ref="D435" r:id="rId1394"/>
+    <hyperlink ref="F435" r:id="rId1395"/>
+    <hyperlink ref="G435" r:id="rId1396"/>
+    <hyperlink ref="A436" r:id="rId1397"/>
+    <hyperlink ref="D436" r:id="rId1398"/>
+    <hyperlink ref="A437" r:id="rId1399"/>
+    <hyperlink ref="D437" r:id="rId1400"/>
+    <hyperlink ref="A438" r:id="rId1401"/>
+    <hyperlink ref="D438" r:id="rId1402"/>
+    <hyperlink ref="F438" r:id="rId1403"/>
     <hyperlink ref="A439" r:id="rId1404"/>
     <hyperlink ref="D439" r:id="rId1405"/>
     <hyperlink ref="F439" r:id="rId1406"/>
-    <hyperlink ref="A440" r:id="rId1407"/>
-    <hyperlink ref="D440" r:id="rId1408"/>
-    <hyperlink ref="F440" r:id="rId1409"/>
-    <hyperlink ref="A441" r:id="rId1410" location="expand--special-instructions-for-rancher-distributions-to-get-the-api-url-and-the-bearer-token"/>
-    <hyperlink ref="D441" r:id="rId1411" location="expand--special-instructions-for-rancher-distributions-to-get-the-api-url-and-the-bearer-token"/>
-    <hyperlink ref="F441" r:id="rId1412" location="expand--special-instructions-for-rancher-distributions-to-get-the-api-url-and-the-bearer-token"/>
-    <hyperlink ref="A442" r:id="rId1413"/>
-    <hyperlink ref="D442" r:id="rId1414"/>
-    <hyperlink ref="F442" r:id="rId1415"/>
-    <hyperlink ref="G442" r:id="rId1416"/>
-    <hyperlink ref="A443" r:id="rId1417"/>
-    <hyperlink ref="D443" r:id="rId1418"/>
-    <hyperlink ref="F443" r:id="rId1419"/>
-    <hyperlink ref="G443" r:id="rId1420"/>
-    <hyperlink ref="A444" r:id="rId1421"/>
-    <hyperlink ref="D444" r:id="rId1422"/>
-    <hyperlink ref="A445" r:id="rId1423"/>
-    <hyperlink ref="D445" r:id="rId1424"/>
-    <hyperlink ref="F445" r:id="rId1425"/>
-    <hyperlink ref="G445" r:id="rId1426"/>
-    <hyperlink ref="A446" r:id="rId1427"/>
-    <hyperlink ref="D446" r:id="rId1428"/>
-    <hyperlink ref="F446" r:id="rId1429"/>
-    <hyperlink ref="G446" r:id="rId1430"/>
-    <hyperlink ref="A447" r:id="rId1431"/>
-    <hyperlink ref="D447" r:id="rId1432"/>
-    <hyperlink ref="A448" r:id="rId1433"/>
-    <hyperlink ref="D448" r:id="rId1434"/>
-    <hyperlink ref="F448" r:id="rId1435"/>
+    <hyperlink ref="A440" r:id="rId1407" location="expand--special-instructions-for-rancher-distributions-to-get-the-api-url-and-the-bearer-token"/>
+    <hyperlink ref="D440" r:id="rId1408" location="expand--special-instructions-for-rancher-distributions-to-get-the-api-url-and-the-bearer-token"/>
+    <hyperlink ref="F440" r:id="rId1409" location="expand--special-instructions-for-rancher-distributions-to-get-the-api-url-and-the-bearer-token"/>
+    <hyperlink ref="A441" r:id="rId1410"/>
+    <hyperlink ref="D441" r:id="rId1411"/>
+    <hyperlink ref="F441" r:id="rId1412"/>
+    <hyperlink ref="G441" r:id="rId1413"/>
+    <hyperlink ref="A442" r:id="rId1414"/>
+    <hyperlink ref="D442" r:id="rId1415"/>
+    <hyperlink ref="F442" r:id="rId1416"/>
+    <hyperlink ref="G442" r:id="rId1417"/>
+    <hyperlink ref="A443" r:id="rId1418"/>
+    <hyperlink ref="D443" r:id="rId1419"/>
+    <hyperlink ref="A444" r:id="rId1420"/>
+    <hyperlink ref="D444" r:id="rId1421"/>
+    <hyperlink ref="F444" r:id="rId1422"/>
+    <hyperlink ref="G444" r:id="rId1423"/>
+    <hyperlink ref="A445" r:id="rId1424"/>
+    <hyperlink ref="D445" r:id="rId1425"/>
+    <hyperlink ref="F445" r:id="rId1426"/>
+    <hyperlink ref="G445" r:id="rId1427"/>
+    <hyperlink ref="A446" r:id="rId1428"/>
+    <hyperlink ref="D446" r:id="rId1429"/>
+    <hyperlink ref="A447" r:id="rId1430"/>
+    <hyperlink ref="D447" r:id="rId1431"/>
+    <hyperlink ref="F447" r:id="rId1432"/>
+    <hyperlink ref="G447" r:id="rId1433"/>
+    <hyperlink ref="A448" r:id="rId1434"/>
+    <hyperlink ref="D448" r:id="rId1435"/>
     <hyperlink ref="G448" r:id="rId1436"/>
     <hyperlink ref="A449" r:id="rId1437"/>
     <hyperlink ref="D449" r:id="rId1438"/>
-    <hyperlink ref="G449" r:id="rId1439"/>
+    <hyperlink ref="F449" r:id="rId1439"/>
     <hyperlink ref="A450" r:id="rId1440"/>
     <hyperlink ref="D450" r:id="rId1441"/>
-    <hyperlink ref="F450" r:id="rId1442"/>
+    <hyperlink ref="G450" r:id="rId1442"/>
     <hyperlink ref="A451" r:id="rId1443"/>
     <hyperlink ref="D451" r:id="rId1444"/>
-    <hyperlink ref="G451" r:id="rId1445"/>
+    <hyperlink ref="F451" r:id="rId1445"/>
     <hyperlink ref="A452" r:id="rId1446"/>
     <hyperlink ref="D452" r:id="rId1447"/>
     <hyperlink ref="F452" r:id="rId1448"/>
     <hyperlink ref="A453" r:id="rId1449"/>
     <hyperlink ref="D453" r:id="rId1450"/>
     <hyperlink ref="F453" r:id="rId1451"/>
-    <hyperlink ref="A454" r:id="rId1452"/>
-    <hyperlink ref="D454" r:id="rId1453"/>
-    <hyperlink ref="F454" r:id="rId1454"/>
-    <hyperlink ref="G454" r:id="rId1455"/>
-    <hyperlink ref="A455" r:id="rId1456"/>
-    <hyperlink ref="D455" r:id="rId1457"/>
-    <hyperlink ref="A456" r:id="rId1458"/>
-    <hyperlink ref="D456" r:id="rId1459"/>
-    <hyperlink ref="F456" r:id="rId1460"/>
-    <hyperlink ref="G456" r:id="rId1461"/>
+    <hyperlink ref="G453" r:id="rId1452"/>
+    <hyperlink ref="A454" r:id="rId1453"/>
+    <hyperlink ref="D454" r:id="rId1454"/>
+    <hyperlink ref="A455" r:id="rId1455"/>
+    <hyperlink ref="D455" r:id="rId1456"/>
+    <hyperlink ref="F455" r:id="rId1457"/>
+    <hyperlink ref="G455" r:id="rId1458"/>
+    <hyperlink ref="A456" r:id="rId1459"/>
+    <hyperlink ref="D456" r:id="rId1460"/>
+    <hyperlink ref="F456" r:id="rId1461"/>
     <hyperlink ref="A457" r:id="rId1462"/>
     <hyperlink ref="D457" r:id="rId1463"/>
-    <hyperlink ref="F457" r:id="rId1464"/>
+    <hyperlink ref="G457" r:id="rId1464"/>
     <hyperlink ref="A458" r:id="rId1465"/>
     <hyperlink ref="D458" r:id="rId1466"/>
-    <hyperlink ref="G458" r:id="rId1467"/>
-    <hyperlink ref="A459" r:id="rId1468"/>
-    <hyperlink ref="D459" r:id="rId1469"/>
-    <hyperlink ref="F459" r:id="rId1470"/>
-    <hyperlink ref="G459" r:id="rId1471"/>
-    <hyperlink ref="A460" r:id="rId1472"/>
-    <hyperlink ref="D460" r:id="rId1473"/>
-    <hyperlink ref="F460" r:id="rId1474"/>
-    <hyperlink ref="G460" r:id="rId1475"/>
-    <hyperlink ref="A461" r:id="rId1476"/>
-    <hyperlink ref="D461" r:id="rId1477"/>
-    <hyperlink ref="F461" r:id="rId1478"/>
+    <hyperlink ref="F458" r:id="rId1467"/>
+    <hyperlink ref="G458" r:id="rId1468"/>
+    <hyperlink ref="A459" r:id="rId1469"/>
+    <hyperlink ref="D459" r:id="rId1470"/>
+    <hyperlink ref="F459" r:id="rId1471"/>
+    <hyperlink ref="G459" r:id="rId1472"/>
+    <hyperlink ref="A460" r:id="rId1473"/>
+    <hyperlink ref="D460" r:id="rId1474"/>
+    <hyperlink ref="F460" r:id="rId1475"/>
+    <hyperlink ref="G460" r:id="rId1476"/>
+    <hyperlink ref="A461" r:id="rId1477"/>
+    <hyperlink ref="D461" r:id="rId1478"/>
     <hyperlink ref="G461" r:id="rId1479"/>
     <hyperlink ref="A462" r:id="rId1480"/>
     <hyperlink ref="D462" r:id="rId1481"/>
-    <hyperlink ref="G462" r:id="rId1482"/>
-    <hyperlink ref="A463" r:id="rId1483"/>
-    <hyperlink ref="D463" r:id="rId1484"/>
-    <hyperlink ref="F463" r:id="rId1485"/>
-    <hyperlink ref="G463" r:id="rId1486"/>
+    <hyperlink ref="F462" r:id="rId1482"/>
+    <hyperlink ref="G462" r:id="rId1483"/>
+    <hyperlink ref="A463" r:id="rId1484"/>
+    <hyperlink ref="D463" r:id="rId1485"/>
+    <hyperlink ref="F463" r:id="rId1486"/>
     <hyperlink ref="A464" r:id="rId1487"/>
     <hyperlink ref="D464" r:id="rId1488"/>
-    <hyperlink ref="F464" r:id="rId1489"/>
-    <hyperlink ref="A465" r:id="rId1490"/>
-    <hyperlink ref="D465" r:id="rId1491"/>
-    <hyperlink ref="A466" r:id="rId1492"/>
-    <hyperlink ref="D466" r:id="rId1493"/>
-    <hyperlink ref="F466" r:id="rId1494"/>
-    <hyperlink ref="G466" r:id="rId1495"/>
-    <hyperlink ref="A467" r:id="rId1496"/>
-    <hyperlink ref="D467" r:id="rId1497"/>
-    <hyperlink ref="A468" r:id="rId1498"/>
-    <hyperlink ref="D468" r:id="rId1499"/>
-    <hyperlink ref="F468" r:id="rId1500"/>
-    <hyperlink ref="G468" r:id="rId1501"/>
-    <hyperlink ref="A469" r:id="rId1502"/>
-    <hyperlink ref="D469" r:id="rId1503"/>
-    <hyperlink ref="A470" r:id="rId1504"/>
-    <hyperlink ref="D470" r:id="rId1505"/>
+    <hyperlink ref="A465" r:id="rId1489"/>
+    <hyperlink ref="D465" r:id="rId1490"/>
+    <hyperlink ref="F465" r:id="rId1491"/>
+    <hyperlink ref="G465" r:id="rId1492"/>
+    <hyperlink ref="A466" r:id="rId1493"/>
+    <hyperlink ref="D466" r:id="rId1494"/>
+    <hyperlink ref="A467" r:id="rId1495"/>
+    <hyperlink ref="D467" r:id="rId1496"/>
+    <hyperlink ref="F467" r:id="rId1497"/>
+    <hyperlink ref="G467" r:id="rId1498"/>
+    <hyperlink ref="A468" r:id="rId1499"/>
+    <hyperlink ref="D468" r:id="rId1500"/>
+    <hyperlink ref="A469" r:id="rId1501"/>
+    <hyperlink ref="D469" r:id="rId1502"/>
+    <hyperlink ref="A470" r:id="rId1503"/>
+    <hyperlink ref="D470" r:id="rId1504"/>
+    <hyperlink ref="E470" r:id="rId1505"/>
     <hyperlink ref="A471" r:id="rId1506"/>
     <hyperlink ref="D471" r:id="rId1507"/>
-    <hyperlink ref="E471" r:id="rId1508"/>
+    <hyperlink ref="G471" r:id="rId1508"/>
     <hyperlink ref="A472" r:id="rId1509"/>
     <hyperlink ref="D472" r:id="rId1510"/>
-    <hyperlink ref="G472" r:id="rId1511"/>
-    <hyperlink ref="A473" r:id="rId1512"/>
-    <hyperlink ref="D473" r:id="rId1513"/>
-    <hyperlink ref="F473" r:id="rId1514"/>
-    <hyperlink ref="G473" r:id="rId1515"/>
-    <hyperlink ref="A474" r:id="rId1516"/>
-    <hyperlink ref="D474" r:id="rId1517"/>
-    <hyperlink ref="F474" r:id="rId1518"/>
-    <hyperlink ref="G474" r:id="rId1519"/>
-    <hyperlink ref="A475" r:id="rId1520"/>
-    <hyperlink ref="D475" r:id="rId1521"/>
-    <hyperlink ref="F475" r:id="rId1522"/>
-    <hyperlink ref="G475" r:id="rId1523"/>
-    <hyperlink ref="A476" r:id="rId1524"/>
-    <hyperlink ref="D476" r:id="rId1525"/>
-    <hyperlink ref="F476" r:id="rId1526"/>
-    <hyperlink ref="G476" r:id="rId1527"/>
+    <hyperlink ref="F472" r:id="rId1511"/>
+    <hyperlink ref="G472" r:id="rId1512"/>
+    <hyperlink ref="A473" r:id="rId1513"/>
+    <hyperlink ref="D473" r:id="rId1514"/>
+    <hyperlink ref="F473" r:id="rId1515"/>
+    <hyperlink ref="G473" r:id="rId1516"/>
+    <hyperlink ref="A474" r:id="rId1517"/>
+    <hyperlink ref="D474" r:id="rId1518"/>
+    <hyperlink ref="F474" r:id="rId1519"/>
+    <hyperlink ref="G474" r:id="rId1520"/>
+    <hyperlink ref="A475" r:id="rId1521"/>
+    <hyperlink ref="D475" r:id="rId1522"/>
+    <hyperlink ref="F475" r:id="rId1523"/>
+    <hyperlink ref="G475" r:id="rId1524"/>
+    <hyperlink ref="A476" r:id="rId1525"/>
+    <hyperlink ref="D476" r:id="rId1526"/>
+    <hyperlink ref="F476" r:id="rId1527"/>
     <hyperlink ref="A477" r:id="rId1528"/>
     <hyperlink ref="D477" r:id="rId1529"/>
     <hyperlink ref="F477" r:id="rId1530"/>
-    <hyperlink ref="A478" r:id="rId1531"/>
-    <hyperlink ref="D478" r:id="rId1532"/>
-    <hyperlink ref="F478" r:id="rId1533"/>
-    <hyperlink ref="G478" r:id="rId1534"/>
-    <hyperlink ref="A479" r:id="rId1535"/>
-    <hyperlink ref="D479" r:id="rId1536"/>
-    <hyperlink ref="A480" r:id="rId1537"/>
-    <hyperlink ref="D480" r:id="rId1538"/>
-    <hyperlink ref="F480" r:id="rId1539"/>
-    <hyperlink ref="G480" r:id="rId1540"/>
+    <hyperlink ref="G477" r:id="rId1531"/>
+    <hyperlink ref="A478" r:id="rId1532"/>
+    <hyperlink ref="D478" r:id="rId1533"/>
+    <hyperlink ref="A479" r:id="rId1534"/>
+    <hyperlink ref="D479" r:id="rId1535"/>
+    <hyperlink ref="F479" r:id="rId1536"/>
+    <hyperlink ref="G479" r:id="rId1537"/>
+    <hyperlink ref="A480" r:id="rId1538"/>
+    <hyperlink ref="D480" r:id="rId1539"/>
+    <hyperlink ref="F480" r:id="rId1540"/>
     <hyperlink ref="A481" r:id="rId1541"/>
     <hyperlink ref="D481" r:id="rId1542"/>
     <hyperlink ref="F481" r:id="rId1543"/>
     <hyperlink ref="A482" r:id="rId1544"/>
     <hyperlink ref="D482" r:id="rId1545"/>
-    <hyperlink ref="F482" r:id="rId1546"/>
+    <hyperlink ref="G482" r:id="rId1546"/>
     <hyperlink ref="A483" r:id="rId1547"/>
     <hyperlink ref="D483" r:id="rId1548"/>
-    <hyperlink ref="G483" r:id="rId1549"/>
-    <hyperlink ref="A484" r:id="rId1550"/>
-    <hyperlink ref="D484" r:id="rId1551"/>
-    <hyperlink ref="F484" r:id="rId1552"/>
-    <hyperlink ref="G484" r:id="rId1553"/>
-    <hyperlink ref="A485" r:id="rId1554"/>
-    <hyperlink ref="D485" r:id="rId1555"/>
-    <hyperlink ref="A486" r:id="rId1556"/>
-    <hyperlink ref="D486" r:id="rId1557"/>
-    <hyperlink ref="F486" r:id="rId1558"/>
-    <hyperlink ref="G486" r:id="rId1559"/>
-    <hyperlink ref="A487" r:id="rId1560"/>
-    <hyperlink ref="D487" r:id="rId1561"/>
-    <hyperlink ref="F487" r:id="rId1562"/>
-    <hyperlink ref="G487" r:id="rId1563"/>
-    <hyperlink ref="A488" r:id="rId1564"/>
-    <hyperlink ref="D488" r:id="rId1565"/>
-    <hyperlink ref="F488" r:id="rId1566"/>
-    <hyperlink ref="G488" r:id="rId1567"/>
-    <hyperlink ref="A489" r:id="rId1568"/>
-    <hyperlink ref="D489" r:id="rId1569"/>
-    <hyperlink ref="F489" r:id="rId1570"/>
-    <hyperlink ref="G489" r:id="rId1571"/>
-    <hyperlink ref="A490" r:id="rId1572"/>
-    <hyperlink ref="D490" r:id="rId1573"/>
+    <hyperlink ref="F483" r:id="rId1549"/>
+    <hyperlink ref="G483" r:id="rId1550"/>
+    <hyperlink ref="A484" r:id="rId1551"/>
+    <hyperlink ref="D484" r:id="rId1552"/>
+    <hyperlink ref="F484" r:id="rId1553"/>
+    <hyperlink ref="G484" r:id="rId1554"/>
+    <hyperlink ref="A485" r:id="rId1555"/>
+    <hyperlink ref="D485" r:id="rId1556"/>
+    <hyperlink ref="F485" r:id="rId1557"/>
+    <hyperlink ref="G485" r:id="rId1558"/>
+    <hyperlink ref="A486" r:id="rId1559"/>
+    <hyperlink ref="D486" r:id="rId1560"/>
+    <hyperlink ref="F486" r:id="rId1561"/>
+    <hyperlink ref="G486" r:id="rId1562"/>
+    <hyperlink ref="A487" r:id="rId1563"/>
+    <hyperlink ref="D487" r:id="rId1564"/>
+    <hyperlink ref="F487" r:id="rId1565"/>
+    <hyperlink ref="G487" r:id="rId1566"/>
+    <hyperlink ref="A488" r:id="rId1567"/>
+    <hyperlink ref="D488" r:id="rId1568"/>
+    <hyperlink ref="A489" r:id="rId1569"/>
+    <hyperlink ref="D489" r:id="rId1570"/>
+    <hyperlink ref="A490" r:id="rId1571"/>
+    <hyperlink ref="D490" r:id="rId1572"/>
+    <hyperlink ref="G490" r:id="rId1573"/>
     <hyperlink ref="A491" r:id="rId1574"/>
     <hyperlink ref="D491" r:id="rId1575"/>
-    <hyperlink ref="A492" r:id="rId1576"/>
-    <hyperlink ref="D492" r:id="rId1577"/>
-    <hyperlink ref="G492" r:id="rId1578"/>
-    <hyperlink ref="A493" r:id="rId1579"/>
-    <hyperlink ref="D493" r:id="rId1580"/>
-    <hyperlink ref="F493" r:id="rId1581"/>
-    <hyperlink ref="G493" r:id="rId1582"/>
-    <hyperlink ref="A494" r:id="rId1583"/>
-    <hyperlink ref="D494" r:id="rId1584"/>
-    <hyperlink ref="F494" r:id="rId1585"/>
+    <hyperlink ref="F491" r:id="rId1576"/>
+    <hyperlink ref="G491" r:id="rId1577"/>
+    <hyperlink ref="A492" r:id="rId1578"/>
+    <hyperlink ref="D492" r:id="rId1579"/>
+    <hyperlink ref="F492" r:id="rId1580"/>
+    <hyperlink ref="A493" r:id="rId1581"/>
+    <hyperlink ref="D493" r:id="rId1582"/>
+    <hyperlink ref="E493" r:id="rId1583"/>
+    <hyperlink ref="A494" r:id="rId1584"/>
+    <hyperlink ref="D494" r:id="rId1585"/>
     <hyperlink ref="A495" r:id="rId1586"/>
     <hyperlink ref="D495" r:id="rId1587"/>
-    <hyperlink ref="E495" r:id="rId1588"/>
-    <hyperlink ref="A496" r:id="rId1589"/>
-    <hyperlink ref="D496" r:id="rId1590"/>
-    <hyperlink ref="A497" r:id="rId1591"/>
-    <hyperlink ref="D497" r:id="rId1592"/>
-    <hyperlink ref="F497" r:id="rId1593"/>
-    <hyperlink ref="G497" r:id="rId1594"/>
-    <hyperlink ref="A498" r:id="rId1595"/>
-    <hyperlink ref="D498" r:id="rId1596"/>
-    <hyperlink ref="F498" r:id="rId1597"/>
-    <hyperlink ref="G498" r:id="rId1598"/>
-    <hyperlink ref="A499" r:id="rId1599"/>
-    <hyperlink ref="D499" r:id="rId1600"/>
-    <hyperlink ref="F499" r:id="rId1601"/>
+    <hyperlink ref="F495" r:id="rId1588"/>
+    <hyperlink ref="G495" r:id="rId1589"/>
+    <hyperlink ref="A496" r:id="rId1590"/>
+    <hyperlink ref="D496" r:id="rId1591"/>
+    <hyperlink ref="F496" r:id="rId1592"/>
+    <hyperlink ref="G496" r:id="rId1593"/>
+    <hyperlink ref="A497" r:id="rId1594"/>
+    <hyperlink ref="D497" r:id="rId1595"/>
+    <hyperlink ref="F497" r:id="rId1596"/>
+    <hyperlink ref="A498" r:id="rId1597"/>
+    <hyperlink ref="D498" r:id="rId1598"/>
+    <hyperlink ref="G498" r:id="rId1599"/>
+    <hyperlink ref="A499" r:id="rId1600"/>
+    <hyperlink ref="D499" r:id="rId1601"/>
     <hyperlink ref="A500" r:id="rId1602"/>
     <hyperlink ref="D500" r:id="rId1603"/>
-    <hyperlink ref="G500" r:id="rId1604"/>
-    <hyperlink ref="A501" r:id="rId1605"/>
-    <hyperlink ref="D501" r:id="rId1606"/>
-    <hyperlink ref="A502" r:id="rId1607"/>
-    <hyperlink ref="D502" r:id="rId1608"/>
-    <hyperlink ref="A503" r:id="rId1609"/>
-    <hyperlink ref="D503" r:id="rId1610"/>
-    <hyperlink ref="F503" r:id="rId1611"/>
-    <hyperlink ref="G503" r:id="rId1612"/>
-    <hyperlink ref="A504" r:id="rId1613"/>
-    <hyperlink ref="D504" r:id="rId1614"/>
-    <hyperlink ref="A505" r:id="rId1615"/>
-    <hyperlink ref="D505" r:id="rId1616"/>
-    <hyperlink ref="A506" r:id="rId1617"/>
-    <hyperlink ref="D506" r:id="rId1618"/>
-    <hyperlink ref="A507" r:id="rId1619"/>
-    <hyperlink ref="D507" r:id="rId1620"/>
-    <hyperlink ref="A508" r:id="rId1621"/>
-    <hyperlink ref="D508" r:id="rId1622"/>
-    <hyperlink ref="F508" r:id="rId1623"/>
-    <hyperlink ref="G508" r:id="rId1624"/>
-    <hyperlink ref="A509" r:id="rId1625"/>
-    <hyperlink ref="D509" r:id="rId1626"/>
-    <hyperlink ref="A510" r:id="rId1627"/>
-    <hyperlink ref="D510" r:id="rId1628"/>
-    <hyperlink ref="F510" r:id="rId1629"/>
-    <hyperlink ref="G510" r:id="rId1630"/>
-    <hyperlink ref="A511" r:id="rId1631"/>
-    <hyperlink ref="D511" r:id="rId1632"/>
-    <hyperlink ref="F511" r:id="rId1633"/>
-    <hyperlink ref="G511" r:id="rId1634"/>
-    <hyperlink ref="A512" r:id="rId1635"/>
-    <hyperlink ref="D512" r:id="rId1636"/>
-    <hyperlink ref="F512" r:id="rId1637"/>
-    <hyperlink ref="G512" r:id="rId1638"/>
-    <hyperlink ref="A513" r:id="rId1639"/>
-    <hyperlink ref="D513" r:id="rId1640"/>
-    <hyperlink ref="A514" r:id="rId1641"/>
-    <hyperlink ref="D514" r:id="rId1642"/>
-    <hyperlink ref="A515" r:id="rId1643"/>
-    <hyperlink ref="D515" r:id="rId1644"/>
+    <hyperlink ref="A501" r:id="rId1604"/>
+    <hyperlink ref="D501" r:id="rId1605"/>
+    <hyperlink ref="F501" r:id="rId1606"/>
+    <hyperlink ref="G501" r:id="rId1607"/>
+    <hyperlink ref="A502" r:id="rId1608"/>
+    <hyperlink ref="D502" r:id="rId1609"/>
+    <hyperlink ref="A503" r:id="rId1610"/>
+    <hyperlink ref="D503" r:id="rId1611"/>
+    <hyperlink ref="A504" r:id="rId1612"/>
+    <hyperlink ref="D504" r:id="rId1613"/>
+    <hyperlink ref="A505" r:id="rId1614"/>
+    <hyperlink ref="D505" r:id="rId1615"/>
+    <hyperlink ref="A506" r:id="rId1616"/>
+    <hyperlink ref="D506" r:id="rId1617"/>
+    <hyperlink ref="F506" r:id="rId1618"/>
+    <hyperlink ref="G506" r:id="rId1619"/>
+    <hyperlink ref="A507" r:id="rId1620"/>
+    <hyperlink ref="D507" r:id="rId1621"/>
+    <hyperlink ref="A508" r:id="rId1622"/>
+    <hyperlink ref="D508" r:id="rId1623"/>
+    <hyperlink ref="F508" r:id="rId1624"/>
+    <hyperlink ref="G508" r:id="rId1625"/>
+    <hyperlink ref="A509" r:id="rId1626"/>
+    <hyperlink ref="D509" r:id="rId1627"/>
+    <hyperlink ref="F509" r:id="rId1628"/>
+    <hyperlink ref="G509" r:id="rId1629"/>
+    <hyperlink ref="A510" r:id="rId1630"/>
+    <hyperlink ref="D510" r:id="rId1631"/>
+    <hyperlink ref="F510" r:id="rId1632"/>
+    <hyperlink ref="G510" r:id="rId1633"/>
+    <hyperlink ref="A511" r:id="rId1634"/>
+    <hyperlink ref="D511" r:id="rId1635"/>
+    <hyperlink ref="A512" r:id="rId1636"/>
+    <hyperlink ref="D512" r:id="rId1637"/>
+    <hyperlink ref="A513" r:id="rId1638"/>
+    <hyperlink ref="D513" r:id="rId1639"/>
+    <hyperlink ref="A514" r:id="rId1640"/>
+    <hyperlink ref="D514" r:id="rId1641"/>
+    <hyperlink ref="A515" r:id="rId1642"/>
+    <hyperlink ref="D515" r:id="rId1643"/>
+    <hyperlink ref="F515" r:id="rId1644"/>
     <hyperlink ref="A516" r:id="rId1645"/>
     <hyperlink ref="D516" r:id="rId1646"/>
-    <hyperlink ref="F516" r:id="rId1647"/>
-    <hyperlink ref="A517" r:id="rId1648"/>
-    <hyperlink ref="D517" r:id="rId1649"/>
-    <hyperlink ref="A518" r:id="rId1650"/>
-    <hyperlink ref="D518" r:id="rId1651"/>
-    <hyperlink ref="F518" r:id="rId1652"/>
-    <hyperlink ref="G518" r:id="rId1653"/>
-    <hyperlink ref="A519" r:id="rId1654"/>
-    <hyperlink ref="D519" r:id="rId1655"/>
-    <hyperlink ref="A520" r:id="rId1656"/>
-    <hyperlink ref="D520" r:id="rId1657"/>
-    <hyperlink ref="F520" r:id="rId1658"/>
-    <hyperlink ref="G520" r:id="rId1659"/>
-    <hyperlink ref="A521" r:id="rId1660"/>
-    <hyperlink ref="D521" r:id="rId1661"/>
-    <hyperlink ref="F521" r:id="rId1662"/>
-    <hyperlink ref="G521" r:id="rId1663"/>
-    <hyperlink ref="A522" r:id="rId1664"/>
-    <hyperlink ref="D522" r:id="rId1665"/>
-    <hyperlink ref="A523" r:id="rId1666"/>
-    <hyperlink ref="D523" r:id="rId1667"/>
-    <hyperlink ref="F523" r:id="rId1668"/>
-    <hyperlink ref="G523" r:id="rId1669"/>
-    <hyperlink ref="A524" r:id="rId1670"/>
-    <hyperlink ref="D524" r:id="rId1671"/>
-    <hyperlink ref="F524" r:id="rId1672"/>
-    <hyperlink ref="G524" r:id="rId1673"/>
+    <hyperlink ref="A517" r:id="rId1647"/>
+    <hyperlink ref="D517" r:id="rId1648"/>
+    <hyperlink ref="F517" r:id="rId1649"/>
+    <hyperlink ref="G517" r:id="rId1650"/>
+    <hyperlink ref="A518" r:id="rId1651"/>
+    <hyperlink ref="D518" r:id="rId1652"/>
+    <hyperlink ref="A519" r:id="rId1653"/>
+    <hyperlink ref="D519" r:id="rId1654"/>
+    <hyperlink ref="F519" r:id="rId1655"/>
+    <hyperlink ref="G519" r:id="rId1656"/>
+    <hyperlink ref="A520" r:id="rId1657"/>
+    <hyperlink ref="D520" r:id="rId1658"/>
+    <hyperlink ref="F520" r:id="rId1659"/>
+    <hyperlink ref="G520" r:id="rId1660"/>
+    <hyperlink ref="A521" r:id="rId1661"/>
+    <hyperlink ref="D521" r:id="rId1662"/>
+    <hyperlink ref="A522" r:id="rId1663"/>
+    <hyperlink ref="D522" r:id="rId1664"/>
+    <hyperlink ref="F522" r:id="rId1665"/>
+    <hyperlink ref="G522" r:id="rId1666"/>
+    <hyperlink ref="A523" r:id="rId1667"/>
+    <hyperlink ref="D523" r:id="rId1668"/>
+    <hyperlink ref="F523" r:id="rId1669"/>
+    <hyperlink ref="G523" r:id="rId1670"/>
+    <hyperlink ref="A524" r:id="rId1671"/>
+    <hyperlink ref="D524" r:id="rId1672"/>
+    <hyperlink ref="F524" r:id="rId1673"/>
     <hyperlink ref="A525" r:id="rId1674"/>
     <hyperlink ref="D525" r:id="rId1675"/>
-    <hyperlink ref="F525" r:id="rId1676"/>
-    <hyperlink ref="A526" r:id="rId1677"/>
-    <hyperlink ref="D526" r:id="rId1678"/>
-    <hyperlink ref="G526" r:id="rId1679"/>
+    <hyperlink ref="G525" r:id="rId1676"/>
+    <hyperlink ref="A526" r:id="rId1677" location="containers"/>
+    <hyperlink ref="D526" r:id="rId1678" location="containers"/>
+    <hyperlink ref="F526" r:id="rId1679" location="containers"/>
     <hyperlink ref="A527" r:id="rId1680" location="containers"/>
     <hyperlink ref="D527" r:id="rId1681" location="containers"/>
     <hyperlink ref="F527" r:id="rId1682" location="containers"/>
-    <hyperlink ref="A528" r:id="rId1683" location="containers"/>
-    <hyperlink ref="D528" r:id="rId1684" location="containers"/>
-    <hyperlink ref="F528" r:id="rId1685" location="containers"/>
-    <hyperlink ref="A529" r:id="rId1686"/>
-    <hyperlink ref="D529" r:id="rId1687"/>
-    <hyperlink ref="F529" r:id="rId1688"/>
-    <hyperlink ref="G529" r:id="rId1689"/>
-    <hyperlink ref="A530" r:id="rId1690"/>
-    <hyperlink ref="D530" r:id="rId1691"/>
-    <hyperlink ref="A531" r:id="rId1692"/>
-    <hyperlink ref="D531" r:id="rId1693"/>
-    <hyperlink ref="F531" r:id="rId1694"/>
-    <hyperlink ref="G531" r:id="rId1695"/>
-    <hyperlink ref="A532" r:id="rId1696"/>
-    <hyperlink ref="D532" r:id="rId1697"/>
-    <hyperlink ref="F532" r:id="rId1698"/>
-    <hyperlink ref="G532" r:id="rId1699" location="real-user-monitoring"/>
-    <hyperlink ref="A533" r:id="rId1700"/>
-    <hyperlink ref="D533" r:id="rId1701"/>
-    <hyperlink ref="F533" r:id="rId1702"/>
-    <hyperlink ref="G533" r:id="rId1703"/>
-    <hyperlink ref="A534" r:id="rId1704"/>
-    <hyperlink ref="D534" r:id="rId1705"/>
-    <hyperlink ref="F534" r:id="rId1706"/>
-    <hyperlink ref="G534" r:id="rId1707"/>
-    <hyperlink ref="A535" r:id="rId1708" location="cshid=Dynatrace"/>
-    <hyperlink ref="D535" r:id="rId1709" location="cshid=Dynatrace"/>
-    <hyperlink ref="F535" r:id="rId1710" location="cshid=Dynatrace"/>
-    <hyperlink ref="G535" r:id="rId1711"/>
+    <hyperlink ref="A528" r:id="rId1683"/>
+    <hyperlink ref="D528" r:id="rId1684"/>
+    <hyperlink ref="F528" r:id="rId1685"/>
+    <hyperlink ref="G528" r:id="rId1686"/>
+    <hyperlink ref="A529" r:id="rId1687"/>
+    <hyperlink ref="D529" r:id="rId1688"/>
+    <hyperlink ref="A530" r:id="rId1689"/>
+    <hyperlink ref="D530" r:id="rId1690"/>
+    <hyperlink ref="F530" r:id="rId1691"/>
+    <hyperlink ref="G530" r:id="rId1692"/>
+    <hyperlink ref="A531" r:id="rId1693"/>
+    <hyperlink ref="D531" r:id="rId1694"/>
+    <hyperlink ref="F531" r:id="rId1695"/>
+    <hyperlink ref="G531" r:id="rId1696" location="real-user-monitoring"/>
+    <hyperlink ref="A532" r:id="rId1697"/>
+    <hyperlink ref="D532" r:id="rId1698"/>
+    <hyperlink ref="F532" r:id="rId1699"/>
+    <hyperlink ref="G532" r:id="rId1700"/>
+    <hyperlink ref="A533" r:id="rId1701"/>
+    <hyperlink ref="D533" r:id="rId1702"/>
+    <hyperlink ref="F533" r:id="rId1703"/>
+    <hyperlink ref="G533" r:id="rId1704"/>
+    <hyperlink ref="A534" r:id="rId1705" location="cshid=Dynatrace"/>
+    <hyperlink ref="D534" r:id="rId1706" location="cshid=Dynatrace"/>
+    <hyperlink ref="F534" r:id="rId1707" location="cshid=Dynatrace"/>
+    <hyperlink ref="G534" r:id="rId1708"/>
+    <hyperlink ref="A535" r:id="rId1709"/>
+    <hyperlink ref="D535" r:id="rId1710"/>
+    <hyperlink ref="E535" r:id="rId1711"/>
     <hyperlink ref="A536" r:id="rId1712"/>
     <hyperlink ref="D536" r:id="rId1713"/>
     <hyperlink ref="E536" r:id="rId1714"/>
@@ -17635,9 +17603,6 @@
     <hyperlink ref="A544" r:id="rId1736"/>
     <hyperlink ref="D544" r:id="rId1737"/>
     <hyperlink ref="E544" r:id="rId1738"/>
-    <hyperlink ref="A545" r:id="rId1739"/>
-    <hyperlink ref="D545" r:id="rId1740"/>
-    <hyperlink ref="E545" r:id="rId1741"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
